--- a/BNEF Tier PV.xlsx
+++ b/BNEF Tier PV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastian.hong\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebh/GitHub/demo-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0A5627-E174-46F0-BBCE-0E56099D3A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A82782BE-D616-EB42-840C-638912F011C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="2865" windowWidth="21630" windowHeight="11205" xr2:uid="{B760A2CB-B84D-4CB0-856A-DEC5C296FBF2}"/>
+    <workbookView xWindow="5560" yWindow="3800" windowWidth="21640" windowHeight="11200" xr2:uid="{B760A2CB-B84D-4CB0-856A-DEC5C296FBF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1186,25 +1186,25 @@
   <dimension ref="A1:L691"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="C2" sqref="C2:C691"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1224,9 +1224,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>_xlfn.CONCAT(B2,C2)</f>
+        <f t="shared" ref="A2:A65" si="0">_xlfn.CONCAT(B2,C2)</f>
         <v>2021Q1</v>
       </c>
       <c r="B2" s="2">
@@ -1245,9 +1245,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>_xlfn.CONCAT(B3,C3)</f>
+        <f t="shared" si="0"/>
         <v>2021Q2</v>
       </c>
       <c r="B3">
@@ -1266,9 +1266,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>_xlfn.CONCAT(B4,C4)</f>
+        <f t="shared" si="0"/>
         <v>2023Q4</v>
       </c>
       <c r="B4">
@@ -1287,9 +1287,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>_xlfn.CONCAT(B5,C5)</f>
+        <f t="shared" si="0"/>
         <v>2024Q1</v>
       </c>
       <c r="B5">
@@ -1308,9 +1308,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>_xlfn.CONCAT(B6,C6)</f>
+        <f t="shared" si="0"/>
         <v>2024Q2</v>
       </c>
       <c r="B6">
@@ -1329,9 +1329,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>_xlfn.CONCAT(B7,C7)</f>
+        <f t="shared" si="0"/>
         <v>2024Q3</v>
       </c>
       <c r="B7">
@@ -1350,9 +1350,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>_xlfn.CONCAT(B8,C8)</f>
+        <f t="shared" si="0"/>
         <v>2024Q4</v>
       </c>
       <c r="B8">
@@ -1371,9 +1371,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>_xlfn.CONCAT(B9,C9)</f>
+        <f t="shared" si="0"/>
         <v>2025Q1</v>
       </c>
       <c r="B9">
@@ -1392,9 +1392,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>_xlfn.CONCAT(B10,C10)</f>
+        <f t="shared" si="0"/>
         <v>2021Q1</v>
       </c>
       <c r="B10" s="2">
@@ -1414,9 +1414,9 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>_xlfn.CONCAT(B11,C11)</f>
+        <f t="shared" si="0"/>
         <v>2021Q2</v>
       </c>
       <c r="B11">
@@ -1436,9 +1436,9 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>_xlfn.CONCAT(B12,C12)</f>
+        <f t="shared" si="0"/>
         <v>2021Q3</v>
       </c>
       <c r="B12">
@@ -1459,9 +1459,9 @@
       <c r="J12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>_xlfn.CONCAT(B13,C13)</f>
+        <f t="shared" si="0"/>
         <v>2021Q4</v>
       </c>
       <c r="B13">
@@ -1482,9 +1482,9 @@
       <c r="J13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>_xlfn.CONCAT(B14,C14)</f>
+        <f t="shared" si="0"/>
         <v>2022Q1</v>
       </c>
       <c r="B14">
@@ -1505,9 +1505,9 @@
       <c r="J14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>_xlfn.CONCAT(B15,C15)</f>
+        <f t="shared" si="0"/>
         <v>2022Q2</v>
       </c>
       <c r="B15">
@@ -1528,9 +1528,9 @@
       <c r="J15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>_xlfn.CONCAT(B16,C16)</f>
+        <f t="shared" si="0"/>
         <v>2022Q3</v>
       </c>
       <c r="B16">
@@ -1551,9 +1551,9 @@
       <c r="J16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>_xlfn.CONCAT(B17,C17)</f>
+        <f t="shared" si="0"/>
         <v>2022Q4</v>
       </c>
       <c r="B17">
@@ -1573,9 +1573,9 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f>_xlfn.CONCAT(B18,C18)</f>
+        <f t="shared" si="0"/>
         <v>2023Q1</v>
       </c>
       <c r="B18">
@@ -1595,9 +1595,9 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f>_xlfn.CONCAT(B19,C19)</f>
+        <f t="shared" si="0"/>
         <v>2023Q2</v>
       </c>
       <c r="B19">
@@ -1618,9 +1618,9 @@
       <c r="J19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f>_xlfn.CONCAT(B20,C20)</f>
+        <f t="shared" si="0"/>
         <v>2023Q3</v>
       </c>
       <c r="B20">
@@ -1640,9 +1640,9 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f>_xlfn.CONCAT(B21,C21)</f>
+        <f t="shared" si="0"/>
         <v>2023Q4</v>
       </c>
       <c r="B21">
@@ -1662,9 +1662,9 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f>_xlfn.CONCAT(B22,C22)</f>
+        <f t="shared" si="0"/>
         <v>2024Q1</v>
       </c>
       <c r="B22">
@@ -1685,9 +1685,9 @@
       <c r="H22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f>_xlfn.CONCAT(B23,C23)</f>
+        <f t="shared" si="0"/>
         <v>2024Q2</v>
       </c>
       <c r="B23">
@@ -1708,9 +1708,9 @@
       <c r="J23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f>_xlfn.CONCAT(B24,C24)</f>
+        <f t="shared" si="0"/>
         <v>2024Q3</v>
       </c>
       <c r="B24">
@@ -1729,9 +1729,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f>_xlfn.CONCAT(B25,C25)</f>
+        <f t="shared" si="0"/>
         <v>2025Q1</v>
       </c>
       <c r="B25">
@@ -1752,9 +1752,9 @@
       <c r="J25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f>_xlfn.CONCAT(B26,C26)</f>
+        <f t="shared" si="0"/>
         <v>2024Q3</v>
       </c>
       <c r="B26">
@@ -1775,9 +1775,9 @@
       <c r="J26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f>_xlfn.CONCAT(B27,C27)</f>
+        <f t="shared" si="0"/>
         <v>2024Q4</v>
       </c>
       <c r="B27">
@@ -1797,9 +1797,9 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f>_xlfn.CONCAT(B28,C28)</f>
+        <f t="shared" si="0"/>
         <v>2025Q1</v>
       </c>
       <c r="B28">
@@ -1820,9 +1820,9 @@
       <c r="J28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f>_xlfn.CONCAT(B29,C29)</f>
+        <f t="shared" si="0"/>
         <v>2023Q3</v>
       </c>
       <c r="B29">
@@ -1843,9 +1843,9 @@
       <c r="J29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f>_xlfn.CONCAT(B30,C30)</f>
+        <f t="shared" si="0"/>
         <v>2023Q4</v>
       </c>
       <c r="B30">
@@ -1866,9 +1866,9 @@
       <c r="J30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f>_xlfn.CONCAT(B31,C31)</f>
+        <f t="shared" si="0"/>
         <v>2024Q2</v>
       </c>
       <c r="B31">
@@ -1888,9 +1888,9 @@
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f>_xlfn.CONCAT(B32,C32)</f>
+        <f t="shared" si="0"/>
         <v>2023Q3</v>
       </c>
       <c r="B32">
@@ -1909,9 +1909,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f>_xlfn.CONCAT(B33,C33)</f>
+        <f t="shared" si="0"/>
         <v>2023Q4</v>
       </c>
       <c r="B33">
@@ -1931,9 +1931,9 @@
       </c>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f>_xlfn.CONCAT(B34,C34)</f>
+        <f t="shared" si="0"/>
         <v>2024Q2</v>
       </c>
       <c r="B34">
@@ -1953,9 +1953,9 @@
       </c>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f>_xlfn.CONCAT(B35,C35)</f>
+        <f t="shared" si="0"/>
         <v>2024Q3</v>
       </c>
       <c r="B35">
@@ -1975,9 +1975,9 @@
       </c>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <f>_xlfn.CONCAT(B36,C36)</f>
+        <f t="shared" si="0"/>
         <v>2024Q4</v>
       </c>
       <c r="B36">
@@ -1997,9 +1997,9 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f>_xlfn.CONCAT(B37,C37)</f>
+        <f t="shared" si="0"/>
         <v>2025Q1</v>
       </c>
       <c r="B37">
@@ -2019,9 +2019,9 @@
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f>_xlfn.CONCAT(B38,C38)</f>
+        <f t="shared" si="0"/>
         <v>2023Q1</v>
       </c>
       <c r="B38">
@@ -2041,9 +2041,9 @@
       </c>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f>_xlfn.CONCAT(B39,C39)</f>
+        <f t="shared" si="0"/>
         <v>2023Q2</v>
       </c>
       <c r="B39">
@@ -2062,9 +2062,9 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f>_xlfn.CONCAT(B40,C40)</f>
+        <f t="shared" si="0"/>
         <v>2023Q3</v>
       </c>
       <c r="B40">
@@ -2084,9 +2084,9 @@
       </c>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <f>_xlfn.CONCAT(B41,C41)</f>
+        <f t="shared" si="0"/>
         <v>2023Q4</v>
       </c>
       <c r="B41">
@@ -2105,9 +2105,9 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <f>_xlfn.CONCAT(B42,C42)</f>
+        <f t="shared" si="0"/>
         <v>2024Q2</v>
       </c>
       <c r="B42">
@@ -2127,9 +2127,9 @@
       </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <f>_xlfn.CONCAT(B43,C43)</f>
+        <f t="shared" si="0"/>
         <v>2024Q3</v>
       </c>
       <c r="B43">
@@ -2149,9 +2149,9 @@
       </c>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <f>_xlfn.CONCAT(B44,C44)</f>
+        <f t="shared" si="0"/>
         <v>2024Q4</v>
       </c>
       <c r="B44">
@@ -2171,9 +2171,9 @@
       </c>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <f>_xlfn.CONCAT(B45,C45)</f>
+        <f t="shared" si="0"/>
         <v>2025Q1</v>
       </c>
       <c r="B45">
@@ -2192,9 +2192,9 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <f>_xlfn.CONCAT(B46,C46)</f>
+        <f t="shared" si="0"/>
         <v>2021Q1</v>
       </c>
       <c r="B46" s="2">
@@ -2214,9 +2214,9 @@
       </c>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <f>_xlfn.CONCAT(B47,C47)</f>
+        <f t="shared" si="0"/>
         <v>2021Q2</v>
       </c>
       <c r="B47">
@@ -2236,9 +2236,9 @@
       </c>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <f>_xlfn.CONCAT(B48,C48)</f>
+        <f t="shared" si="0"/>
         <v>2021Q3</v>
       </c>
       <c r="B48">
@@ -2258,9 +2258,9 @@
       </c>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f>_xlfn.CONCAT(B49,C49)</f>
+        <f t="shared" si="0"/>
         <v>2021Q4</v>
       </c>
       <c r="B49">
@@ -2280,9 +2280,9 @@
       </c>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <f>_xlfn.CONCAT(B50,C50)</f>
+        <f t="shared" si="0"/>
         <v>2022Q1</v>
       </c>
       <c r="B50">
@@ -2302,9 +2302,9 @@
       </c>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
-        <f>_xlfn.CONCAT(B51,C51)</f>
+        <f t="shared" si="0"/>
         <v>2022Q2</v>
       </c>
       <c r="B51">
@@ -2324,9 +2324,9 @@
       </c>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <f>_xlfn.CONCAT(B52,C52)</f>
+        <f t="shared" si="0"/>
         <v>2022Q3</v>
       </c>
       <c r="B52">
@@ -2345,9 +2345,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <f>_xlfn.CONCAT(B53,C53)</f>
+        <f t="shared" si="0"/>
         <v>2022Q4</v>
       </c>
       <c r="B53">
@@ -2366,9 +2366,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <f>_xlfn.CONCAT(B54,C54)</f>
+        <f t="shared" si="0"/>
         <v>2023Q1</v>
       </c>
       <c r="B54">
@@ -2387,9 +2387,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <f>_xlfn.CONCAT(B55,C55)</f>
+        <f t="shared" si="0"/>
         <v>2023Q2</v>
       </c>
       <c r="B55">
@@ -2408,9 +2408,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <f>_xlfn.CONCAT(B56,C56)</f>
+        <f t="shared" si="0"/>
         <v>2023Q3</v>
       </c>
       <c r="B56">
@@ -2429,9 +2429,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <f>_xlfn.CONCAT(B57,C57)</f>
+        <f t="shared" si="0"/>
         <v>2023Q4</v>
       </c>
       <c r="B57">
@@ -2450,9 +2450,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <f>_xlfn.CONCAT(B58,C58)</f>
+        <f t="shared" si="0"/>
         <v>2024Q3</v>
       </c>
       <c r="B58">
@@ -2471,9 +2471,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <f>_xlfn.CONCAT(B59,C59)</f>
+        <f t="shared" si="0"/>
         <v>2024Q4</v>
       </c>
       <c r="B59">
@@ -2492,9 +2492,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <f>_xlfn.CONCAT(B60,C60)</f>
+        <f t="shared" si="0"/>
         <v>2021Q1</v>
       </c>
       <c r="B60" s="2">
@@ -2513,9 +2513,9 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <f>_xlfn.CONCAT(B61,C61)</f>
+        <f t="shared" si="0"/>
         <v>2024Q1</v>
       </c>
       <c r="B61">
@@ -2534,9 +2534,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <f>_xlfn.CONCAT(B62,C62)</f>
+        <f t="shared" si="0"/>
         <v>2024Q2</v>
       </c>
       <c r="B62">
@@ -2555,9 +2555,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <f>_xlfn.CONCAT(B63,C63)</f>
+        <f t="shared" si="0"/>
         <v>2021Q1</v>
       </c>
       <c r="B63" s="2">
@@ -2576,9 +2576,9 @@
         <v>16100</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <f>_xlfn.CONCAT(B64,C64)</f>
+        <f t="shared" si="0"/>
         <v>2021Q2</v>
       </c>
       <c r="B64">
@@ -2597,9 +2597,9 @@
         <v>16100</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <f>_xlfn.CONCAT(B65,C65)</f>
+        <f t="shared" si="0"/>
         <v>2021Q3</v>
       </c>
       <c r="B65">
@@ -2619,9 +2619,9 @@
       </c>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <f>_xlfn.CONCAT(B66,C66)</f>
+        <f t="shared" ref="A66:A129" si="1">_xlfn.CONCAT(B66,C66)</f>
         <v>2021Q4</v>
       </c>
       <c r="B66">
@@ -2640,9 +2640,9 @@
         <v>22700</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f>_xlfn.CONCAT(B67,C67)</f>
+        <f t="shared" si="1"/>
         <v>2022Q1</v>
       </c>
       <c r="B67">
@@ -2661,9 +2661,9 @@
         <v>23900</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f>_xlfn.CONCAT(B68,C68)</f>
+        <f t="shared" si="1"/>
         <v>2022Q2</v>
       </c>
       <c r="B68">
@@ -2682,9 +2682,9 @@
         <v>23900</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <f>_xlfn.CONCAT(B69,C69)</f>
+        <f t="shared" si="1"/>
         <v>2022Q3</v>
       </c>
       <c r="B69">
@@ -2703,9 +2703,9 @@
         <v>27900</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <f>_xlfn.CONCAT(B70,C70)</f>
+        <f t="shared" si="1"/>
         <v>2022Q4</v>
       </c>
       <c r="B70">
@@ -2724,9 +2724,9 @@
         <v>27900</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
-        <f>_xlfn.CONCAT(B71,C71)</f>
+        <f t="shared" si="1"/>
         <v>2023Q1</v>
       </c>
       <c r="B71">
@@ -2745,9 +2745,9 @@
         <v>31400</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <f>_xlfn.CONCAT(B72,C72)</f>
+        <f t="shared" si="1"/>
         <v>2023Q2</v>
       </c>
       <c r="B72">
@@ -2766,9 +2766,9 @@
         <v>32200</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <f>_xlfn.CONCAT(B73,C73)</f>
+        <f t="shared" si="1"/>
         <v>2023Q3</v>
       </c>
       <c r="B73">
@@ -2787,9 +2787,9 @@
         <v>36200</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <f>_xlfn.CONCAT(B74,C74)</f>
+        <f t="shared" si="1"/>
         <v>2023Q4</v>
       </c>
       <c r="B74">
@@ -2808,9 +2808,9 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <f>_xlfn.CONCAT(B75,C75)</f>
+        <f t="shared" si="1"/>
         <v>2024Q1</v>
       </c>
       <c r="B75">
@@ -2829,9 +2829,9 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <f>_xlfn.CONCAT(B76,C76)</f>
+        <f t="shared" si="1"/>
         <v>2024Q2</v>
       </c>
       <c r="B76">
@@ -2850,9 +2850,9 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <f>_xlfn.CONCAT(B77,C77)</f>
+        <f t="shared" si="1"/>
         <v>2024Q3</v>
       </c>
       <c r="B77">
@@ -2871,9 +2871,9 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <f>_xlfn.CONCAT(B78,C78)</f>
+        <f t="shared" si="1"/>
         <v>2024Q4</v>
       </c>
       <c r="B78">
@@ -2892,9 +2892,9 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
-        <f>_xlfn.CONCAT(B79,C79)</f>
+        <f t="shared" si="1"/>
         <v>2025Q1</v>
       </c>
       <c r="B79">
@@ -2913,9 +2913,9 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <f>_xlfn.CONCAT(B80,C80)</f>
+        <f t="shared" si="1"/>
         <v>2021Q1</v>
       </c>
       <c r="B80" s="2">
@@ -2934,9 +2934,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <f>_xlfn.CONCAT(B81,C81)</f>
+        <f t="shared" si="1"/>
         <v>2021Q2</v>
       </c>
       <c r="B81">
@@ -2955,9 +2955,9 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
-        <f>_xlfn.CONCAT(B82,C82)</f>
+        <f t="shared" si="1"/>
         <v>2021Q3</v>
       </c>
       <c r="B82">
@@ -2976,9 +2976,9 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
-        <f>_xlfn.CONCAT(B83,C83)</f>
+        <f t="shared" si="1"/>
         <v>2021Q4</v>
       </c>
       <c r="B83">
@@ -2997,9 +2997,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
-        <f>_xlfn.CONCAT(B84,C84)</f>
+        <f t="shared" si="1"/>
         <v>2022Q1</v>
       </c>
       <c r="B84">
@@ -3018,9 +3018,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
-        <f>_xlfn.CONCAT(B85,C85)</f>
+        <f t="shared" si="1"/>
         <v>2022Q2</v>
       </c>
       <c r="B85">
@@ -3039,9 +3039,9 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
-        <f>_xlfn.CONCAT(B86,C86)</f>
+        <f t="shared" si="1"/>
         <v>2022Q3</v>
       </c>
       <c r="B86">
@@ -3060,9 +3060,9 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
-        <f>_xlfn.CONCAT(B87,C87)</f>
+        <f t="shared" si="1"/>
         <v>2022Q4</v>
       </c>
       <c r="B87">
@@ -3081,9 +3081,9 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
-        <f>_xlfn.CONCAT(B88,C88)</f>
+        <f t="shared" si="1"/>
         <v>2023Q1</v>
       </c>
       <c r="B88">
@@ -3102,9 +3102,9 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
-        <f>_xlfn.CONCAT(B89,C89)</f>
+        <f t="shared" si="1"/>
         <v>2023Q2</v>
       </c>
       <c r="B89">
@@ -3123,9 +3123,9 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
-        <f>_xlfn.CONCAT(B90,C90)</f>
+        <f t="shared" si="1"/>
         <v>2023Q3</v>
       </c>
       <c r="B90">
@@ -3144,9 +3144,9 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
-        <f>_xlfn.CONCAT(B91,C91)</f>
+        <f t="shared" si="1"/>
         <v>2023Q4</v>
       </c>
       <c r="B91">
@@ -3165,9 +3165,9 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
-        <f>_xlfn.CONCAT(B92,C92)</f>
+        <f t="shared" si="1"/>
         <v>2024Q1</v>
       </c>
       <c r="B92">
@@ -3186,9 +3186,9 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
-        <f>_xlfn.CONCAT(B93,C93)</f>
+        <f t="shared" si="1"/>
         <v>2024Q2</v>
       </c>
       <c r="B93">
@@ -3207,9 +3207,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
-        <f>_xlfn.CONCAT(B94,C94)</f>
+        <f t="shared" si="1"/>
         <v>2024Q3</v>
       </c>
       <c r="B94">
@@ -3228,9 +3228,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
-        <f>_xlfn.CONCAT(B95,C95)</f>
+        <f t="shared" si="1"/>
         <v>2024Q4</v>
       </c>
       <c r="B95">
@@ -3249,9 +3249,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
-        <f>_xlfn.CONCAT(B96,C96)</f>
+        <f t="shared" si="1"/>
         <v>2025Q1</v>
       </c>
       <c r="B96">
@@ -3270,9 +3270,9 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
-        <f>_xlfn.CONCAT(B97,C97)</f>
+        <f t="shared" si="1"/>
         <v>2023Q3</v>
       </c>
       <c r="B97">
@@ -3291,9 +3291,9 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
-        <f>_xlfn.CONCAT(B98,C98)</f>
+        <f t="shared" si="1"/>
         <v>2023Q4</v>
       </c>
       <c r="B98">
@@ -3312,9 +3312,9 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
-        <f>_xlfn.CONCAT(B99,C99)</f>
+        <f t="shared" si="1"/>
         <v>2024Q3</v>
       </c>
       <c r="B99">
@@ -3333,9 +3333,9 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
-        <f>_xlfn.CONCAT(B100,C100)</f>
+        <f t="shared" si="1"/>
         <v>2024Q4</v>
       </c>
       <c r="B100">
@@ -3354,9 +3354,9 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
-        <f>_xlfn.CONCAT(B101,C101)</f>
+        <f t="shared" si="1"/>
         <v>2025Q1</v>
       </c>
       <c r="B101">
@@ -3375,9 +3375,9 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
-        <f>_xlfn.CONCAT(B102,C102)</f>
+        <f t="shared" si="1"/>
         <v>2021Q2</v>
       </c>
       <c r="B102">
@@ -3396,9 +3396,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
-        <f>_xlfn.CONCAT(B103,C103)</f>
+        <f t="shared" si="1"/>
         <v>2021Q3</v>
       </c>
       <c r="B103">
@@ -3417,9 +3417,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
-        <f>_xlfn.CONCAT(B104,C104)</f>
+        <f t="shared" si="1"/>
         <v>2021Q4</v>
       </c>
       <c r="B104">
@@ -3438,9 +3438,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
-        <f>_xlfn.CONCAT(B105,C105)</f>
+        <f t="shared" si="1"/>
         <v>2022Q1</v>
       </c>
       <c r="B105">
@@ -3460,9 +3460,9 @@
       </c>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
-        <f>_xlfn.CONCAT(B106,C106)</f>
+        <f t="shared" si="1"/>
         <v>2022Q2</v>
       </c>
       <c r="B106">
@@ -3481,9 +3481,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
-        <f>_xlfn.CONCAT(B107,C107)</f>
+        <f t="shared" si="1"/>
         <v>2022Q3</v>
       </c>
       <c r="B107">
@@ -3502,9 +3502,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
-        <f>_xlfn.CONCAT(B108,C108)</f>
+        <f t="shared" si="1"/>
         <v>2022Q4</v>
       </c>
       <c r="B108">
@@ -3523,9 +3523,9 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
-        <f>_xlfn.CONCAT(B109,C109)</f>
+        <f t="shared" si="1"/>
         <v>2023Q1</v>
       </c>
       <c r="B109">
@@ -3544,9 +3544,9 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
-        <f>_xlfn.CONCAT(B110,C110)</f>
+        <f t="shared" si="1"/>
         <v>2023Q2</v>
       </c>
       <c r="B110">
@@ -3565,9 +3565,9 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
-        <f>_xlfn.CONCAT(B111,C111)</f>
+        <f t="shared" si="1"/>
         <v>2023Q3</v>
       </c>
       <c r="B111">
@@ -3586,9 +3586,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
-        <f>_xlfn.CONCAT(B112,C112)</f>
+        <f t="shared" si="1"/>
         <v>2023Q4</v>
       </c>
       <c r="B112">
@@ -3607,9 +3607,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
-        <f>_xlfn.CONCAT(B113,C113)</f>
+        <f t="shared" si="1"/>
         <v>2024Q1</v>
       </c>
       <c r="B113">
@@ -3628,9 +3628,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
-        <f>_xlfn.CONCAT(B114,C114)</f>
+        <f t="shared" si="1"/>
         <v>2024Q2</v>
       </c>
       <c r="B114">
@@ -3649,9 +3649,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
-        <f>_xlfn.CONCAT(B115,C115)</f>
+        <f t="shared" si="1"/>
         <v>2024Q3</v>
       </c>
       <c r="B115">
@@ -3670,9 +3670,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
-        <f>_xlfn.CONCAT(B116,C116)</f>
+        <f t="shared" si="1"/>
         <v>2024Q4</v>
       </c>
       <c r="B116">
@@ -3691,9 +3691,9 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
-        <f>_xlfn.CONCAT(B117,C117)</f>
+        <f t="shared" si="1"/>
         <v>2025Q1</v>
       </c>
       <c r="B117">
@@ -3712,9 +3712,9 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
-        <f>_xlfn.CONCAT(B118,C118)</f>
+        <f t="shared" si="1"/>
         <v>2021Q1</v>
       </c>
       <c r="B118" s="2">
@@ -3733,9 +3733,9 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
-        <f>_xlfn.CONCAT(B119,C119)</f>
+        <f t="shared" si="1"/>
         <v>2021Q2</v>
       </c>
       <c r="B119">
@@ -3754,9 +3754,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
-        <f>_xlfn.CONCAT(B120,C120)</f>
+        <f t="shared" si="1"/>
         <v>2021Q3</v>
       </c>
       <c r="B120">
@@ -3775,9 +3775,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
-        <f>_xlfn.CONCAT(B121,C121)</f>
+        <f t="shared" si="1"/>
         <v>2022Q2</v>
       </c>
       <c r="B121">
@@ -3796,9 +3796,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
-        <f>_xlfn.CONCAT(B122,C122)</f>
+        <f t="shared" si="1"/>
         <v>2022Q3</v>
       </c>
       <c r="B122">
@@ -3817,9 +3817,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
-        <f>_xlfn.CONCAT(B123,C123)</f>
+        <f t="shared" si="1"/>
         <v>2022Q4</v>
       </c>
       <c r="B123">
@@ -3838,9 +3838,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
-        <f>_xlfn.CONCAT(B124,C124)</f>
+        <f t="shared" si="1"/>
         <v>2023Q1</v>
       </c>
       <c r="B124">
@@ -3859,9 +3859,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
-        <f>_xlfn.CONCAT(B125,C125)</f>
+        <f t="shared" si="1"/>
         <v>2023Q2</v>
       </c>
       <c r="B125">
@@ -3880,9 +3880,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
-        <f>_xlfn.CONCAT(B126,C126)</f>
+        <f t="shared" si="1"/>
         <v>2023Q3</v>
       </c>
       <c r="B126">
@@ -3901,9 +3901,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
-        <f>_xlfn.CONCAT(B127,C127)</f>
+        <f t="shared" si="1"/>
         <v>2023Q4</v>
       </c>
       <c r="B127">
@@ -3922,9 +3922,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
-        <f>_xlfn.CONCAT(B128,C128)</f>
+        <f t="shared" si="1"/>
         <v>2024Q1</v>
       </c>
       <c r="B128">
@@ -3943,9 +3943,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
-        <f>_xlfn.CONCAT(B129,C129)</f>
+        <f t="shared" si="1"/>
         <v>2024Q2</v>
       </c>
       <c r="B129">
@@ -3964,9 +3964,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
-        <f>_xlfn.CONCAT(B130,C130)</f>
+        <f t="shared" ref="A130:A193" si="2">_xlfn.CONCAT(B130,C130)</f>
         <v>2024Q3</v>
       </c>
       <c r="B130">
@@ -3985,9 +3985,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
-        <f>_xlfn.CONCAT(B131,C131)</f>
+        <f t="shared" si="2"/>
         <v>2024Q4</v>
       </c>
       <c r="B131">
@@ -4006,9 +4006,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
-        <f>_xlfn.CONCAT(B132,C132)</f>
+        <f t="shared" si="2"/>
         <v>2025Q1</v>
       </c>
       <c r="B132">
@@ -4027,9 +4027,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
-        <f>_xlfn.CONCAT(B133,C133)</f>
+        <f t="shared" si="2"/>
         <v>2021Q1</v>
       </c>
       <c r="B133" s="2">
@@ -4048,9 +4048,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
-        <f>_xlfn.CONCAT(B134,C134)</f>
+        <f t="shared" si="2"/>
         <v>2021Q2</v>
       </c>
       <c r="B134">
@@ -4069,9 +4069,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
-        <f>_xlfn.CONCAT(B135,C135)</f>
+        <f t="shared" si="2"/>
         <v>2021Q3</v>
       </c>
       <c r="B135">
@@ -4090,9 +4090,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
-        <f>_xlfn.CONCAT(B136,C136)</f>
+        <f t="shared" si="2"/>
         <v>2021Q4</v>
       </c>
       <c r="B136">
@@ -4111,9 +4111,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
-        <f>_xlfn.CONCAT(B137,C137)</f>
+        <f t="shared" si="2"/>
         <v>2022Q1</v>
       </c>
       <c r="B137">
@@ -4132,9 +4132,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
-        <f>_xlfn.CONCAT(B138,C138)</f>
+        <f t="shared" si="2"/>
         <v>2022Q2</v>
       </c>
       <c r="B138">
@@ -4153,9 +4153,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
-        <f>_xlfn.CONCAT(B139,C139)</f>
+        <f t="shared" si="2"/>
         <v>2022Q3</v>
       </c>
       <c r="B139">
@@ -4174,9 +4174,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
-        <f>_xlfn.CONCAT(B140,C140)</f>
+        <f t="shared" si="2"/>
         <v>2022Q4</v>
       </c>
       <c r="B140">
@@ -4196,9 +4196,9 @@
       </c>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
-        <f>_xlfn.CONCAT(B141,C141)</f>
+        <f t="shared" si="2"/>
         <v>2023Q1</v>
       </c>
       <c r="B141">
@@ -4217,9 +4217,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
-        <f>_xlfn.CONCAT(B142,C142)</f>
+        <f t="shared" si="2"/>
         <v>2023Q2</v>
       </c>
       <c r="B142">
@@ -4238,9 +4238,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
-        <f>_xlfn.CONCAT(B143,C143)</f>
+        <f t="shared" si="2"/>
         <v>2023Q3</v>
       </c>
       <c r="B143">
@@ -4259,9 +4259,9 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
-        <f>_xlfn.CONCAT(B144,C144)</f>
+        <f t="shared" si="2"/>
         <v>2023Q4</v>
       </c>
       <c r="B144">
@@ -4280,9 +4280,9 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
-        <f>_xlfn.CONCAT(B145,C145)</f>
+        <f t="shared" si="2"/>
         <v>2024Q1</v>
       </c>
       <c r="B145">
@@ -4301,9 +4301,9 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
-        <f>_xlfn.CONCAT(B146,C146)</f>
+        <f t="shared" si="2"/>
         <v>2024Q2</v>
       </c>
       <c r="B146">
@@ -4322,9 +4322,9 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
-        <f>_xlfn.CONCAT(B147,C147)</f>
+        <f t="shared" si="2"/>
         <v>2024Q3</v>
       </c>
       <c r="B147">
@@ -4343,9 +4343,9 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
-        <f>_xlfn.CONCAT(B148,C148)</f>
+        <f t="shared" si="2"/>
         <v>2024Q4</v>
       </c>
       <c r="B148">
@@ -4364,9 +4364,9 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
-        <f>_xlfn.CONCAT(B149,C149)</f>
+        <f t="shared" si="2"/>
         <v>2025Q1</v>
       </c>
       <c r="B149">
@@ -4385,9 +4385,9 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
-        <f>_xlfn.CONCAT(B150,C150)</f>
+        <f t="shared" si="2"/>
         <v>2021Q2</v>
       </c>
       <c r="B150">
@@ -4406,9 +4406,9 @@
         <v>700</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
-        <f>_xlfn.CONCAT(B151,C151)</f>
+        <f t="shared" si="2"/>
         <v>2021Q3</v>
       </c>
       <c r="B151">
@@ -4427,9 +4427,9 @@
         <v>700</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
-        <f>_xlfn.CONCAT(B152,C152)</f>
+        <f t="shared" si="2"/>
         <v>2021Q4</v>
       </c>
       <c r="B152">
@@ -4448,9 +4448,9 @@
         <v>700</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
-        <f>_xlfn.CONCAT(B153,C153)</f>
+        <f t="shared" si="2"/>
         <v>2022Q1</v>
       </c>
       <c r="B153">
@@ -4469,9 +4469,9 @@
         <v>700</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
-        <f>_xlfn.CONCAT(B154,C154)</f>
+        <f t="shared" si="2"/>
         <v>2022Q2</v>
       </c>
       <c r="B154">
@@ -4490,9 +4490,9 @@
         <v>700</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
-        <f>_xlfn.CONCAT(B155,C155)</f>
+        <f t="shared" si="2"/>
         <v>2022Q3</v>
       </c>
       <c r="B155">
@@ -4511,9 +4511,9 @@
         <v>700</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
-        <f>_xlfn.CONCAT(B156,C156)</f>
+        <f t="shared" si="2"/>
         <v>2022Q4</v>
       </c>
       <c r="B156">
@@ -4532,9 +4532,9 @@
         <v>700</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
-        <f>_xlfn.CONCAT(B157,C157)</f>
+        <f t="shared" si="2"/>
         <v>2023Q1</v>
       </c>
       <c r="B157">
@@ -4553,9 +4553,9 @@
         <v>700</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
-        <f>_xlfn.CONCAT(B158,C158)</f>
+        <f t="shared" si="2"/>
         <v>2023Q2</v>
       </c>
       <c r="B158">
@@ -4574,9 +4574,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
-        <f>_xlfn.CONCAT(B159,C159)</f>
+        <f t="shared" si="2"/>
         <v>2023Q3</v>
       </c>
       <c r="B159">
@@ -4595,9 +4595,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
-        <f>_xlfn.CONCAT(B160,C160)</f>
+        <f t="shared" si="2"/>
         <v>2023Q4</v>
       </c>
       <c r="B160">
@@ -4616,9 +4616,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="str">
-        <f>_xlfn.CONCAT(B161,C161)</f>
+        <f t="shared" si="2"/>
         <v>2025Q1</v>
       </c>
       <c r="B161">
@@ -4637,9 +4637,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
-        <f>_xlfn.CONCAT(B162,C162)</f>
+        <f t="shared" si="2"/>
         <v>2021Q1</v>
       </c>
       <c r="B162" s="2">
@@ -4658,9 +4658,9 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
-        <f>_xlfn.CONCAT(B163,C163)</f>
+        <f t="shared" si="2"/>
         <v>2021Q2</v>
       </c>
       <c r="B163">
@@ -4679,9 +4679,9 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
-        <f>_xlfn.CONCAT(B164,C164)</f>
+        <f t="shared" si="2"/>
         <v>2021Q3</v>
       </c>
       <c r="B164">
@@ -4700,9 +4700,9 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
-        <f>_xlfn.CONCAT(B165,C165)</f>
+        <f t="shared" si="2"/>
         <v>2021Q4</v>
       </c>
       <c r="B165">
@@ -4721,9 +4721,9 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
-        <f>_xlfn.CONCAT(B166,C166)</f>
+        <f t="shared" si="2"/>
         <v>2022Q1</v>
       </c>
       <c r="B166">
@@ -4742,9 +4742,9 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
-        <f>_xlfn.CONCAT(B167,C167)</f>
+        <f t="shared" si="2"/>
         <v>2022Q2</v>
       </c>
       <c r="B167">
@@ -4763,9 +4763,9 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="str">
-        <f>_xlfn.CONCAT(B168,C168)</f>
+        <f t="shared" si="2"/>
         <v>2022Q3</v>
       </c>
       <c r="B168">
@@ -4784,9 +4784,9 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="str">
-        <f>_xlfn.CONCAT(B169,C169)</f>
+        <f t="shared" si="2"/>
         <v>2022Q4</v>
       </c>
       <c r="B169">
@@ -4805,9 +4805,9 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
-        <f>_xlfn.CONCAT(B170,C170)</f>
+        <f t="shared" si="2"/>
         <v>2023Q1</v>
       </c>
       <c r="B170">
@@ -4826,9 +4826,9 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
-        <f>_xlfn.CONCAT(B171,C171)</f>
+        <f t="shared" si="2"/>
         <v>2023Q2</v>
       </c>
       <c r="B171">
@@ -4847,9 +4847,9 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
-        <f>_xlfn.CONCAT(B172,C172)</f>
+        <f t="shared" si="2"/>
         <v>2023Q3</v>
       </c>
       <c r="B172">
@@ -4868,9 +4868,9 @@
         <v>11300</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="str">
-        <f>_xlfn.CONCAT(B173,C173)</f>
+        <f t="shared" si="2"/>
         <v>2023Q4</v>
       </c>
       <c r="B173">
@@ -4889,9 +4889,9 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
-        <f>_xlfn.CONCAT(B174,C174)</f>
+        <f t="shared" si="2"/>
         <v>2024Q1</v>
       </c>
       <c r="B174">
@@ -4910,9 +4910,9 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
-        <f>_xlfn.CONCAT(B175,C175)</f>
+        <f t="shared" si="2"/>
         <v>2024Q2</v>
       </c>
       <c r="B175">
@@ -4932,9 +4932,9 @@
       </c>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="str">
-        <f>_xlfn.CONCAT(B176,C176)</f>
+        <f t="shared" si="2"/>
         <v>2024Q3</v>
       </c>
       <c r="B176">
@@ -4953,9 +4953,9 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="str">
-        <f>_xlfn.CONCAT(B177,C177)</f>
+        <f t="shared" si="2"/>
         <v>2024Q4</v>
       </c>
       <c r="B177">
@@ -4974,9 +4974,9 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="str">
-        <f>_xlfn.CONCAT(B178,C178)</f>
+        <f t="shared" si="2"/>
         <v>2025Q1</v>
       </c>
       <c r="B178">
@@ -4995,9 +4995,9 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="str">
-        <f>_xlfn.CONCAT(B179,C179)</f>
+        <f t="shared" si="2"/>
         <v>2021Q3</v>
       </c>
       <c r="B179">
@@ -5016,9 +5016,9 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="str">
-        <f>_xlfn.CONCAT(B180,C180)</f>
+        <f t="shared" si="2"/>
         <v>2022Q2</v>
       </c>
       <c r="B180">
@@ -5037,9 +5037,9 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="str">
-        <f>_xlfn.CONCAT(B181,C181)</f>
+        <f t="shared" si="2"/>
         <v>2022Q3</v>
       </c>
       <c r="B181">
@@ -5058,9 +5058,9 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="str">
-        <f>_xlfn.CONCAT(B182,C182)</f>
+        <f t="shared" si="2"/>
         <v>2022Q4</v>
       </c>
       <c r="B182">
@@ -5079,9 +5079,9 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
-        <f>_xlfn.CONCAT(B183,C183)</f>
+        <f t="shared" si="2"/>
         <v>2023Q2</v>
       </c>
       <c r="B183">
@@ -5100,9 +5100,9 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="str">
-        <f>_xlfn.CONCAT(B184,C184)</f>
+        <f t="shared" si="2"/>
         <v>2023Q4</v>
       </c>
       <c r="B184">
@@ -5121,9 +5121,9 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="str">
-        <f>_xlfn.CONCAT(B185,C185)</f>
+        <f t="shared" si="2"/>
         <v>2024Q1</v>
       </c>
       <c r="B185">
@@ -5142,9 +5142,9 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="str">
-        <f>_xlfn.CONCAT(B186,C186)</f>
+        <f t="shared" si="2"/>
         <v>2024Q2</v>
       </c>
       <c r="B186">
@@ -5163,9 +5163,9 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="str">
-        <f>_xlfn.CONCAT(B187,C187)</f>
+        <f t="shared" si="2"/>
         <v>2024Q3</v>
       </c>
       <c r="B187">
@@ -5184,9 +5184,9 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
-        <f>_xlfn.CONCAT(B188,C188)</f>
+        <f t="shared" si="2"/>
         <v>2024Q4</v>
       </c>
       <c r="B188">
@@ -5205,9 +5205,9 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
-        <f>_xlfn.CONCAT(B189,C189)</f>
+        <f t="shared" si="2"/>
         <v>2025Q1</v>
       </c>
       <c r="B189">
@@ -5226,9 +5226,9 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
-        <f>_xlfn.CONCAT(B190,C190)</f>
+        <f t="shared" si="2"/>
         <v>2021Q1</v>
       </c>
       <c r="B190" s="2">
@@ -5247,9 +5247,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
-        <f>_xlfn.CONCAT(B191,C191)</f>
+        <f t="shared" si="2"/>
         <v>2021Q2</v>
       </c>
       <c r="B191">
@@ -5268,9 +5268,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="str">
-        <f>_xlfn.CONCAT(B192,C192)</f>
+        <f t="shared" si="2"/>
         <v>2021Q3</v>
       </c>
       <c r="B192">
@@ -5289,9 +5289,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
-        <f>_xlfn.CONCAT(B193,C193)</f>
+        <f t="shared" si="2"/>
         <v>2022Q2</v>
       </c>
       <c r="B193">
@@ -5310,9 +5310,9 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="str">
-        <f>_xlfn.CONCAT(B194,C194)</f>
+        <f t="shared" ref="A194:A257" si="3">_xlfn.CONCAT(B194,C194)</f>
         <v>2022Q3</v>
       </c>
       <c r="B194">
@@ -5331,9 +5331,9 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="str">
-        <f>_xlfn.CONCAT(B195,C195)</f>
+        <f t="shared" si="3"/>
         <v>2023Q1</v>
       </c>
       <c r="B195">
@@ -5352,9 +5352,9 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="str">
-        <f>_xlfn.CONCAT(B196,C196)</f>
+        <f t="shared" si="3"/>
         <v>2023Q2</v>
       </c>
       <c r="B196">
@@ -5373,9 +5373,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="str">
-        <f>_xlfn.CONCAT(B197,C197)</f>
+        <f t="shared" si="3"/>
         <v>2023Q3</v>
       </c>
       <c r="B197">
@@ -5394,9 +5394,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="str">
-        <f>_xlfn.CONCAT(B198,C198)</f>
+        <f t="shared" si="3"/>
         <v>2023Q4</v>
       </c>
       <c r="B198">
@@ -5415,9 +5415,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="str">
-        <f>_xlfn.CONCAT(B199,C199)</f>
+        <f t="shared" si="3"/>
         <v>2025Q1</v>
       </c>
       <c r="B199">
@@ -5436,9 +5436,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="str">
-        <f>_xlfn.CONCAT(B200,C200)</f>
+        <f t="shared" si="3"/>
         <v>2023Q2</v>
       </c>
       <c r="B200">
@@ -5457,9 +5457,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="str">
-        <f>_xlfn.CONCAT(B201,C201)</f>
+        <f t="shared" si="3"/>
         <v>2023Q3</v>
       </c>
       <c r="B201">
@@ -5478,9 +5478,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="str">
-        <f>_xlfn.CONCAT(B202,C202)</f>
+        <f t="shared" si="3"/>
         <v>2023Q4</v>
       </c>
       <c r="B202">
@@ -5499,9 +5499,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="str">
-        <f>_xlfn.CONCAT(B203,C203)</f>
+        <f t="shared" si="3"/>
         <v>2024Q1</v>
       </c>
       <c r="B203">
@@ -5520,9 +5520,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="str">
-        <f>_xlfn.CONCAT(B204,C204)</f>
+        <f t="shared" si="3"/>
         <v>2024Q2</v>
       </c>
       <c r="B204">
@@ -5541,9 +5541,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="str">
-        <f>_xlfn.CONCAT(B205,C205)</f>
+        <f t="shared" si="3"/>
         <v>2024Q3</v>
       </c>
       <c r="B205">
@@ -5562,9 +5562,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="str">
-        <f>_xlfn.CONCAT(B206,C206)</f>
+        <f t="shared" si="3"/>
         <v>2024Q4</v>
       </c>
       <c r="B206">
@@ -5583,9 +5583,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="str">
-        <f>_xlfn.CONCAT(B207,C207)</f>
+        <f t="shared" si="3"/>
         <v>2025Q1</v>
       </c>
       <c r="B207">
@@ -5604,9 +5604,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="str">
-        <f>_xlfn.CONCAT(B208,C208)</f>
+        <f t="shared" si="3"/>
         <v>2021Q1</v>
       </c>
       <c r="B208" s="2">
@@ -5625,9 +5625,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="str">
-        <f>_xlfn.CONCAT(B209,C209)</f>
+        <f t="shared" si="3"/>
         <v>2021Q2</v>
       </c>
       <c r="B209">
@@ -5646,9 +5646,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="str">
-        <f>_xlfn.CONCAT(B210,C210)</f>
+        <f t="shared" si="3"/>
         <v>2021Q3</v>
       </c>
       <c r="B210">
@@ -5667,9 +5667,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="str">
-        <f>_xlfn.CONCAT(B211,C211)</f>
+        <f t="shared" si="3"/>
         <v>2021Q4</v>
       </c>
       <c r="B211">
@@ -5688,9 +5688,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="str">
-        <f>_xlfn.CONCAT(B212,C212)</f>
+        <f t="shared" si="3"/>
         <v>2022Q1</v>
       </c>
       <c r="B212">
@@ -5709,9 +5709,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="str">
-        <f>_xlfn.CONCAT(B213,C213)</f>
+        <f t="shared" si="3"/>
         <v>2022Q2</v>
       </c>
       <c r="B213">
@@ -5730,9 +5730,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="str">
-        <f>_xlfn.CONCAT(B214,C214)</f>
+        <f t="shared" si="3"/>
         <v>2022Q3</v>
       </c>
       <c r="B214">
@@ -5751,9 +5751,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="str">
-        <f>_xlfn.CONCAT(B215,C215)</f>
+        <f t="shared" si="3"/>
         <v>2022Q4</v>
       </c>
       <c r="B215">
@@ -5772,9 +5772,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="str">
-        <f>_xlfn.CONCAT(B216,C216)</f>
+        <f t="shared" si="3"/>
         <v>2023Q1</v>
       </c>
       <c r="B216">
@@ -5793,9 +5793,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="str">
-        <f>_xlfn.CONCAT(B217,C217)</f>
+        <f t="shared" si="3"/>
         <v>2023Q2</v>
       </c>
       <c r="B217">
@@ -5814,9 +5814,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="str">
-        <f>_xlfn.CONCAT(B218,C218)</f>
+        <f t="shared" si="3"/>
         <v>2023Q3</v>
       </c>
       <c r="B218">
@@ -5835,9 +5835,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="str">
-        <f>_xlfn.CONCAT(B219,C219)</f>
+        <f t="shared" si="3"/>
         <v>2023Q4</v>
       </c>
       <c r="B219">
@@ -5856,9 +5856,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="str">
-        <f>_xlfn.CONCAT(B220,C220)</f>
+        <f t="shared" si="3"/>
         <v>2025Q1</v>
       </c>
       <c r="B220">
@@ -5877,9 +5877,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="str">
-        <f>_xlfn.CONCAT(B221,C221)</f>
+        <f t="shared" si="3"/>
         <v>2021Q1</v>
       </c>
       <c r="B221" s="2">
@@ -5898,9 +5898,9 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="str">
-        <f>_xlfn.CONCAT(B222,C222)</f>
+        <f t="shared" si="3"/>
         <v>2021Q3</v>
       </c>
       <c r="B222">
@@ -5919,9 +5919,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="str">
-        <f>_xlfn.CONCAT(B223,C223)</f>
+        <f t="shared" si="3"/>
         <v>2021Q4</v>
       </c>
       <c r="B223">
@@ -5940,9 +5940,9 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="str">
-        <f>_xlfn.CONCAT(B224,C224)</f>
+        <f t="shared" si="3"/>
         <v>2022Q1</v>
       </c>
       <c r="B224">
@@ -5961,9 +5961,9 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="str">
-        <f>_xlfn.CONCAT(B225,C225)</f>
+        <f t="shared" si="3"/>
         <v>2022Q2</v>
       </c>
       <c r="B225">
@@ -5982,9 +5982,9 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="str">
-        <f>_xlfn.CONCAT(B226,C226)</f>
+        <f t="shared" si="3"/>
         <v>2022Q3</v>
       </c>
       <c r="B226">
@@ -6003,9 +6003,9 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="str">
-        <f>_xlfn.CONCAT(B227,C227)</f>
+        <f t="shared" si="3"/>
         <v>2022Q4</v>
       </c>
       <c r="B227">
@@ -6024,9 +6024,9 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="str">
-        <f>_xlfn.CONCAT(B228,C228)</f>
+        <f t="shared" si="3"/>
         <v>2023Q1</v>
       </c>
       <c r="B228">
@@ -6045,9 +6045,9 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="str">
-        <f>_xlfn.CONCAT(B229,C229)</f>
+        <f t="shared" si="3"/>
         <v>2023Q2</v>
       </c>
       <c r="B229">
@@ -6066,9 +6066,9 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="str">
-        <f>_xlfn.CONCAT(B230,C230)</f>
+        <f t="shared" si="3"/>
         <v>2023Q3</v>
       </c>
       <c r="B230">
@@ -6087,9 +6087,9 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="str">
-        <f>_xlfn.CONCAT(B231,C231)</f>
+        <f t="shared" si="3"/>
         <v>2023Q4</v>
       </c>
       <c r="B231">
@@ -6108,9 +6108,9 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="str">
-        <f>_xlfn.CONCAT(B232,C232)</f>
+        <f t="shared" si="3"/>
         <v>2024Q2</v>
       </c>
       <c r="B232">
@@ -6129,9 +6129,9 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="str">
-        <f>_xlfn.CONCAT(B233,C233)</f>
+        <f t="shared" si="3"/>
         <v>2024Q3</v>
       </c>
       <c r="B233">
@@ -6150,9 +6150,9 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="str">
-        <f>_xlfn.CONCAT(B234,C234)</f>
+        <f t="shared" si="3"/>
         <v>2024Q4</v>
       </c>
       <c r="B234">
@@ -6171,9 +6171,9 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="str">
-        <f>_xlfn.CONCAT(B235,C235)</f>
+        <f t="shared" si="3"/>
         <v>2025Q1</v>
       </c>
       <c r="B235">
@@ -6192,9 +6192,9 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="str">
-        <f>_xlfn.CONCAT(B236,C236)</f>
+        <f t="shared" si="3"/>
         <v>2021Q1</v>
       </c>
       <c r="B236" s="2">
@@ -6213,9 +6213,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="str">
-        <f>_xlfn.CONCAT(B237,C237)</f>
+        <f t="shared" si="3"/>
         <v>2021Q2</v>
       </c>
       <c r="B237">
@@ -6234,9 +6234,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="str">
-        <f>_xlfn.CONCAT(B238,C238)</f>
+        <f t="shared" si="3"/>
         <v>2021Q3</v>
       </c>
       <c r="B238">
@@ -6255,9 +6255,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="str">
-        <f>_xlfn.CONCAT(B239,C239)</f>
+        <f t="shared" si="3"/>
         <v>2023Q1</v>
       </c>
       <c r="B239">
@@ -6276,9 +6276,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="str">
-        <f>_xlfn.CONCAT(B240,C240)</f>
+        <f t="shared" si="3"/>
         <v>2023Q2</v>
       </c>
       <c r="B240">
@@ -6297,9 +6297,9 @@
         <v>950</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="str">
-        <f>_xlfn.CONCAT(B241,C241)</f>
+        <f t="shared" si="3"/>
         <v>2023Q3</v>
       </c>
       <c r="B241">
@@ -6318,9 +6318,9 @@
         <v>950</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="str">
-        <f>_xlfn.CONCAT(B242,C242)</f>
+        <f t="shared" si="3"/>
         <v>2023Q4</v>
       </c>
       <c r="B242">
@@ -6339,9 +6339,9 @@
         <v>950</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="str">
-        <f>_xlfn.CONCAT(B243,C243)</f>
+        <f t="shared" si="3"/>
         <v>2025Q1</v>
       </c>
       <c r="B243">
@@ -6360,9 +6360,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="str">
-        <f>_xlfn.CONCAT(B244,C244)</f>
+        <f t="shared" si="3"/>
         <v>2021Q1</v>
       </c>
       <c r="B244" s="2">
@@ -6381,9 +6381,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="str">
-        <f>_xlfn.CONCAT(B245,C245)</f>
+        <f t="shared" si="3"/>
         <v>2021Q2</v>
       </c>
       <c r="B245">
@@ -6402,9 +6402,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="str">
-        <f>_xlfn.CONCAT(B246,C246)</f>
+        <f t="shared" si="3"/>
         <v>2021Q3</v>
       </c>
       <c r="B246">
@@ -6423,9 +6423,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="str">
-        <f>_xlfn.CONCAT(B247,C247)</f>
+        <f t="shared" si="3"/>
         <v>2021Q4</v>
       </c>
       <c r="B247">
@@ -6444,9 +6444,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="str">
-        <f>_xlfn.CONCAT(B248,C248)</f>
+        <f t="shared" si="3"/>
         <v>2022Q1</v>
       </c>
       <c r="B248">
@@ -6466,9 +6466,9 @@
       </c>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="str">
-        <f>_xlfn.CONCAT(B249,C249)</f>
+        <f t="shared" si="3"/>
         <v>2022Q2</v>
       </c>
       <c r="B249">
@@ -6487,9 +6487,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="str">
-        <f>_xlfn.CONCAT(B250,C250)</f>
+        <f t="shared" si="3"/>
         <v>2022Q3</v>
       </c>
       <c r="B250">
@@ -6508,9 +6508,9 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="str">
-        <f>_xlfn.CONCAT(B251,C251)</f>
+        <f t="shared" si="3"/>
         <v>2022Q4</v>
       </c>
       <c r="B251">
@@ -6529,9 +6529,9 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="str">
-        <f>_xlfn.CONCAT(B252,C252)</f>
+        <f t="shared" si="3"/>
         <v>2023Q2</v>
       </c>
       <c r="B252">
@@ -6550,9 +6550,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="str">
-        <f>_xlfn.CONCAT(B253,C253)</f>
+        <f t="shared" si="3"/>
         <v>2023Q3</v>
       </c>
       <c r="B253">
@@ -6571,9 +6571,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="str">
-        <f>_xlfn.CONCAT(B254,C254)</f>
+        <f t="shared" si="3"/>
         <v>2023Q4</v>
       </c>
       <c r="B254">
@@ -6592,9 +6592,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="str">
-        <f>_xlfn.CONCAT(B255,C255)</f>
+        <f t="shared" si="3"/>
         <v>2024Q1</v>
       </c>
       <c r="B255">
@@ -6613,9 +6613,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="str">
-        <f>_xlfn.CONCAT(B256,C256)</f>
+        <f t="shared" si="3"/>
         <v>2024Q2</v>
       </c>
       <c r="B256">
@@ -6634,9 +6634,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="str">
-        <f>_xlfn.CONCAT(B257,C257)</f>
+        <f t="shared" si="3"/>
         <v>2024Q3</v>
       </c>
       <c r="B257">
@@ -6655,9 +6655,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="str">
-        <f>_xlfn.CONCAT(B258,C258)</f>
+        <f t="shared" ref="A258:A321" si="4">_xlfn.CONCAT(B258,C258)</f>
         <v>2024Q4</v>
       </c>
       <c r="B258">
@@ -6676,9 +6676,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="str">
-        <f>_xlfn.CONCAT(B259,C259)</f>
+        <f t="shared" si="4"/>
         <v>2025Q1</v>
       </c>
       <c r="B259">
@@ -6697,9 +6697,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="str">
-        <f>_xlfn.CONCAT(B260,C260)</f>
+        <f t="shared" si="4"/>
         <v>2025Q1</v>
       </c>
       <c r="B260">
@@ -6718,9 +6718,9 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="str">
-        <f>_xlfn.CONCAT(B261,C261)</f>
+        <f t="shared" si="4"/>
         <v>2021Q2</v>
       </c>
       <c r="B261">
@@ -6739,9 +6739,9 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="str">
-        <f>_xlfn.CONCAT(B262,C262)</f>
+        <f t="shared" si="4"/>
         <v>2022Q1</v>
       </c>
       <c r="B262">
@@ -6760,9 +6760,9 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="str">
-        <f>_xlfn.CONCAT(B263,C263)</f>
+        <f t="shared" si="4"/>
         <v>2022Q2</v>
       </c>
       <c r="B263">
@@ -6781,9 +6781,9 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="str">
-        <f>_xlfn.CONCAT(B264,C264)</f>
+        <f t="shared" si="4"/>
         <v>2022Q3</v>
       </c>
       <c r="B264">
@@ -6802,9 +6802,9 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="str">
-        <f>_xlfn.CONCAT(B265,C265)</f>
+        <f t="shared" si="4"/>
         <v>2025Q1</v>
       </c>
       <c r="B265">
@@ -6823,9 +6823,9 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="str">
-        <f>_xlfn.CONCAT(B266,C266)</f>
+        <f t="shared" si="4"/>
         <v>2021Q1</v>
       </c>
       <c r="B266" s="2">
@@ -6844,9 +6844,9 @@
         <v>23200</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="str">
-        <f>_xlfn.CONCAT(B267,C267)</f>
+        <f t="shared" si="4"/>
         <v>2021Q2</v>
       </c>
       <c r="B267">
@@ -6865,9 +6865,9 @@
         <v>23200</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="str">
-        <f>_xlfn.CONCAT(B268,C268)</f>
+        <f t="shared" si="4"/>
         <v>2021Q3</v>
       </c>
       <c r="B268">
@@ -6886,9 +6886,9 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="str">
-        <f>_xlfn.CONCAT(B269,C269)</f>
+        <f t="shared" si="4"/>
         <v>2021Q4</v>
       </c>
       <c r="B269">
@@ -6907,9 +6907,9 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="str">
-        <f>_xlfn.CONCAT(B270,C270)</f>
+        <f t="shared" si="4"/>
         <v>2022Q1</v>
       </c>
       <c r="B270">
@@ -6928,9 +6928,9 @@
         <v>40200</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="str">
-        <f>_xlfn.CONCAT(B271,C271)</f>
+        <f t="shared" si="4"/>
         <v>2022Q2</v>
       </c>
       <c r="B271">
@@ -6949,9 +6949,9 @@
         <v>40200</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="str">
-        <f>_xlfn.CONCAT(B272,C272)</f>
+        <f t="shared" si="4"/>
         <v>2022Q3</v>
       </c>
       <c r="B272">
@@ -6970,9 +6970,9 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="str">
-        <f>_xlfn.CONCAT(B273,C273)</f>
+        <f t="shared" si="4"/>
         <v>2022Q4</v>
       </c>
       <c r="B273">
@@ -6991,9 +6991,9 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="str">
-        <f>_xlfn.CONCAT(B274,C274)</f>
+        <f t="shared" si="4"/>
         <v>2023Q1</v>
       </c>
       <c r="B274">
@@ -7012,9 +7012,9 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="str">
-        <f>_xlfn.CONCAT(B275,C275)</f>
+        <f t="shared" si="4"/>
         <v>2023Q2</v>
       </c>
       <c r="B275">
@@ -7033,9 +7033,9 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="str">
-        <f>_xlfn.CONCAT(B276,C276)</f>
+        <f t="shared" si="4"/>
         <v>2023Q3</v>
       </c>
       <c r="B276">
@@ -7054,9 +7054,9 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="str">
-        <f>_xlfn.CONCAT(B277,C277)</f>
+        <f t="shared" si="4"/>
         <v>2023Q4</v>
       </c>
       <c r="B277">
@@ -7075,9 +7075,9 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="str">
-        <f>_xlfn.CONCAT(B278,C278)</f>
+        <f t="shared" si="4"/>
         <v>2024Q1</v>
       </c>
       <c r="B278">
@@ -7096,9 +7096,9 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="str">
-        <f>_xlfn.CONCAT(B279,C279)</f>
+        <f t="shared" si="4"/>
         <v>2024Q2</v>
       </c>
       <c r="B279">
@@ -7117,9 +7117,9 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="str">
-        <f>_xlfn.CONCAT(B280,C280)</f>
+        <f t="shared" si="4"/>
         <v>2024Q3</v>
       </c>
       <c r="B280">
@@ -7138,9 +7138,9 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="str">
-        <f>_xlfn.CONCAT(B281,C281)</f>
+        <f t="shared" si="4"/>
         <v>2024Q4</v>
       </c>
       <c r="B281">
@@ -7159,9 +7159,9 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" t="str">
-        <f>_xlfn.CONCAT(B282,C282)</f>
+        <f t="shared" si="4"/>
         <v>2025Q1</v>
       </c>
       <c r="B282">
@@ -7180,9 +7180,9 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="str">
-        <f>_xlfn.CONCAT(B283,C283)</f>
+        <f t="shared" si="4"/>
         <v>2021Q1</v>
       </c>
       <c r="B283" s="2">
@@ -7201,9 +7201,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" t="str">
-        <f>_xlfn.CONCAT(B284,C284)</f>
+        <f t="shared" si="4"/>
         <v>2021Q2</v>
       </c>
       <c r="B284">
@@ -7222,9 +7222,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" t="str">
-        <f>_xlfn.CONCAT(B285,C285)</f>
+        <f t="shared" si="4"/>
         <v>2021Q3</v>
       </c>
       <c r="B285">
@@ -7243,9 +7243,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="str">
-        <f>_xlfn.CONCAT(B286,C286)</f>
+        <f t="shared" si="4"/>
         <v>2021Q4</v>
       </c>
       <c r="B286">
@@ -7265,9 +7265,9 @@
       </c>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="str">
-        <f>_xlfn.CONCAT(B287,C287)</f>
+        <f t="shared" si="4"/>
         <v>2022Q1</v>
       </c>
       <c r="B287">
@@ -7286,9 +7286,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="str">
-        <f>_xlfn.CONCAT(B288,C288)</f>
+        <f t="shared" si="4"/>
         <v>2022Q2</v>
       </c>
       <c r="B288">
@@ -7307,9 +7307,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="str">
-        <f>_xlfn.CONCAT(B289,C289)</f>
+        <f t="shared" si="4"/>
         <v>2022Q3</v>
       </c>
       <c r="B289">
@@ -7328,9 +7328,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="str">
-        <f>_xlfn.CONCAT(B290,C290)</f>
+        <f t="shared" si="4"/>
         <v>2022Q4</v>
       </c>
       <c r="B290">
@@ -7349,9 +7349,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="str">
-        <f>_xlfn.CONCAT(B291,C291)</f>
+        <f t="shared" si="4"/>
         <v>2023Q1</v>
       </c>
       <c r="B291">
@@ -7370,9 +7370,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="str">
-        <f>_xlfn.CONCAT(B292,C292)</f>
+        <f t="shared" si="4"/>
         <v>2023Q2</v>
       </c>
       <c r="B292">
@@ -7391,9 +7391,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="str">
-        <f>_xlfn.CONCAT(B293,C293)</f>
+        <f t="shared" si="4"/>
         <v>2023Q3</v>
       </c>
       <c r="B293">
@@ -7412,9 +7412,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="str">
-        <f>_xlfn.CONCAT(B294,C294)</f>
+        <f t="shared" si="4"/>
         <v>2023Q4</v>
       </c>
       <c r="B294">
@@ -7433,9 +7433,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="str">
-        <f>_xlfn.CONCAT(B295,C295)</f>
+        <f t="shared" si="4"/>
         <v>2024Q2</v>
       </c>
       <c r="B295">
@@ -7454,9 +7454,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="str">
-        <f>_xlfn.CONCAT(B296,C296)</f>
+        <f t="shared" si="4"/>
         <v>2024Q3</v>
       </c>
       <c r="B296">
@@ -7475,9 +7475,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="str">
-        <f>_xlfn.CONCAT(B297,C297)</f>
+        <f t="shared" si="4"/>
         <v>2024Q4</v>
       </c>
       <c r="B297">
@@ -7496,9 +7496,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="str">
-        <f>_xlfn.CONCAT(B298,C298)</f>
+        <f t="shared" si="4"/>
         <v>2025Q1</v>
       </c>
       <c r="B298">
@@ -7517,9 +7517,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="str">
-        <f>_xlfn.CONCAT(B299,C299)</f>
+        <f t="shared" si="4"/>
         <v>2022Q3</v>
       </c>
       <c r="B299">
@@ -7538,9 +7538,9 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="str">
-        <f>_xlfn.CONCAT(B300,C300)</f>
+        <f t="shared" si="4"/>
         <v>2022Q4</v>
       </c>
       <c r="B300">
@@ -7559,9 +7559,9 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="str">
-        <f>_xlfn.CONCAT(B301,C301)</f>
+        <f t="shared" si="4"/>
         <v>2023Q2</v>
       </c>
       <c r="B301">
@@ -7580,9 +7580,9 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="str">
-        <f>_xlfn.CONCAT(B302,C302)</f>
+        <f t="shared" si="4"/>
         <v>2021Q1</v>
       </c>
       <c r="B302" s="2">
@@ -7601,9 +7601,9 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="str">
-        <f>_xlfn.CONCAT(B303,C303)</f>
+        <f t="shared" si="4"/>
         <v>2021Q2</v>
       </c>
       <c r="B303">
@@ -7622,9 +7622,9 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="str">
-        <f>_xlfn.CONCAT(B304,C304)</f>
+        <f t="shared" si="4"/>
         <v>2021Q3</v>
       </c>
       <c r="B304">
@@ -7643,9 +7643,9 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" t="str">
-        <f>_xlfn.CONCAT(B305,C305)</f>
+        <f t="shared" si="4"/>
         <v>2021Q4</v>
       </c>
       <c r="B305">
@@ -7664,9 +7664,9 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" t="str">
-        <f>_xlfn.CONCAT(B306,C306)</f>
+        <f t="shared" si="4"/>
         <v>2022Q1</v>
       </c>
       <c r="B306">
@@ -7686,9 +7686,9 @@
       </c>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="str">
-        <f>_xlfn.CONCAT(B307,C307)</f>
+        <f t="shared" si="4"/>
         <v>2022Q2</v>
       </c>
       <c r="B307">
@@ -7708,9 +7708,9 @@
       </c>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="str">
-        <f>_xlfn.CONCAT(B308,C308)</f>
+        <f t="shared" si="4"/>
         <v>2022Q3</v>
       </c>
       <c r="B308">
@@ -7730,9 +7730,9 @@
       </c>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="str">
-        <f>_xlfn.CONCAT(B309,C309)</f>
+        <f t="shared" si="4"/>
         <v>2022Q4</v>
       </c>
       <c r="B309">
@@ -7752,9 +7752,9 @@
       </c>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="str">
-        <f>_xlfn.CONCAT(B310,C310)</f>
+        <f t="shared" si="4"/>
         <v>2023Q1</v>
       </c>
       <c r="B310">
@@ -7774,9 +7774,9 @@
       </c>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="str">
-        <f>_xlfn.CONCAT(B311,C311)</f>
+        <f t="shared" si="4"/>
         <v>2023Q2</v>
       </c>
       <c r="B311">
@@ -7796,9 +7796,9 @@
       </c>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="str">
-        <f>_xlfn.CONCAT(B312,C312)</f>
+        <f t="shared" si="4"/>
         <v>2023Q3</v>
       </c>
       <c r="B312">
@@ -7817,9 +7817,9 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" t="str">
-        <f>_xlfn.CONCAT(B313,C313)</f>
+        <f t="shared" si="4"/>
         <v>2023Q4</v>
       </c>
       <c r="B313">
@@ -7839,9 +7839,9 @@
       </c>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" t="str">
-        <f>_xlfn.CONCAT(B314,C314)</f>
+        <f t="shared" si="4"/>
         <v>2024Q1</v>
       </c>
       <c r="B314">
@@ -7860,9 +7860,9 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="str">
-        <f>_xlfn.CONCAT(B315,C315)</f>
+        <f t="shared" si="4"/>
         <v>2024Q3</v>
       </c>
       <c r="B315">
@@ -7882,9 +7882,9 @@
       </c>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="str">
-        <f>_xlfn.CONCAT(B316,C316)</f>
+        <f t="shared" si="4"/>
         <v>2024Q4</v>
       </c>
       <c r="B316">
@@ -7904,9 +7904,9 @@
       </c>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="str">
-        <f>_xlfn.CONCAT(B317,C317)</f>
+        <f t="shared" si="4"/>
         <v>2025Q1</v>
       </c>
       <c r="B317">
@@ -7925,9 +7925,9 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="str">
-        <f>_xlfn.CONCAT(B318,C318)</f>
+        <f t="shared" si="4"/>
         <v>2021Q1</v>
       </c>
       <c r="B318" s="2">
@@ -7947,9 +7947,9 @@
       </c>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="str">
-        <f>_xlfn.CONCAT(B319,C319)</f>
+        <f t="shared" si="4"/>
         <v>2021Q2</v>
       </c>
       <c r="B319">
@@ -7969,9 +7969,9 @@
       </c>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="str">
-        <f>_xlfn.CONCAT(B320,C320)</f>
+        <f t="shared" si="4"/>
         <v>2021Q3</v>
       </c>
       <c r="B320">
@@ -7991,9 +7991,9 @@
       </c>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="str">
-        <f>_xlfn.CONCAT(B321,C321)</f>
+        <f t="shared" si="4"/>
         <v>2021Q4</v>
       </c>
       <c r="B321">
@@ -8013,9 +8013,9 @@
       </c>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="str">
-        <f>_xlfn.CONCAT(B322,C322)</f>
+        <f t="shared" ref="A322:A385" si="5">_xlfn.CONCAT(B322,C322)</f>
         <v>2022Q1</v>
       </c>
       <c r="B322">
@@ -8035,9 +8035,9 @@
       </c>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="str">
-        <f>_xlfn.CONCAT(B323,C323)</f>
+        <f t="shared" si="5"/>
         <v>2022Q2</v>
       </c>
       <c r="B323">
@@ -8057,9 +8057,9 @@
       </c>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="str">
-        <f>_xlfn.CONCAT(B324,C324)</f>
+        <f t="shared" si="5"/>
         <v>2022Q3</v>
       </c>
       <c r="B324">
@@ -8079,9 +8079,9 @@
       </c>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="str">
-        <f>_xlfn.CONCAT(B325,C325)</f>
+        <f t="shared" si="5"/>
         <v>2022Q4</v>
       </c>
       <c r="B325">
@@ -8101,9 +8101,9 @@
       </c>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="str">
-        <f>_xlfn.CONCAT(B326,C326)</f>
+        <f t="shared" si="5"/>
         <v>2023Q1</v>
       </c>
       <c r="B326">
@@ -8122,9 +8122,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="str">
-        <f>_xlfn.CONCAT(B327,C327)</f>
+        <f t="shared" si="5"/>
         <v>2023Q2</v>
       </c>
       <c r="B327">
@@ -8143,9 +8143,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="str">
-        <f>_xlfn.CONCAT(B328,C328)</f>
+        <f t="shared" si="5"/>
         <v>2023Q3</v>
       </c>
       <c r="B328">
@@ -8164,9 +8164,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="str">
-        <f>_xlfn.CONCAT(B329,C329)</f>
+        <f t="shared" si="5"/>
         <v>2023Q4</v>
       </c>
       <c r="B329">
@@ -8185,9 +8185,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="str">
-        <f>_xlfn.CONCAT(B330,C330)</f>
+        <f t="shared" si="5"/>
         <v>2021Q1</v>
       </c>
       <c r="B330" s="2">
@@ -8206,9 +8206,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="str">
-        <f>_xlfn.CONCAT(B331,C331)</f>
+        <f t="shared" si="5"/>
         <v>2021Q2</v>
       </c>
       <c r="B331">
@@ -8227,9 +8227,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="str">
-        <f>_xlfn.CONCAT(B332,C332)</f>
+        <f t="shared" si="5"/>
         <v>2021Q3</v>
       </c>
       <c r="B332">
@@ -8248,9 +8248,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" t="str">
-        <f>_xlfn.CONCAT(B333,C333)</f>
+        <f t="shared" si="5"/>
         <v>2021Q4</v>
       </c>
       <c r="B333">
@@ -8269,9 +8269,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="str">
-        <f>_xlfn.CONCAT(B334,C334)</f>
+        <f t="shared" si="5"/>
         <v>2022Q1</v>
       </c>
       <c r="B334">
@@ -8290,9 +8290,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="str">
-        <f>_xlfn.CONCAT(B335,C335)</f>
+        <f t="shared" si="5"/>
         <v>2022Q2</v>
       </c>
       <c r="B335">
@@ -8311,9 +8311,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="str">
-        <f>_xlfn.CONCAT(B336,C336)</f>
+        <f t="shared" si="5"/>
         <v>2022Q3</v>
       </c>
       <c r="B336">
@@ -8332,9 +8332,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" t="str">
-        <f>_xlfn.CONCAT(B337,C337)</f>
+        <f t="shared" si="5"/>
         <v>2022Q4</v>
       </c>
       <c r="B337">
@@ -8353,9 +8353,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" t="str">
-        <f>_xlfn.CONCAT(B338,C338)</f>
+        <f t="shared" si="5"/>
         <v>2023Q1</v>
       </c>
       <c r="B338">
@@ -8374,9 +8374,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" t="str">
-        <f>_xlfn.CONCAT(B339,C339)</f>
+        <f t="shared" si="5"/>
         <v>2023Q2</v>
       </c>
       <c r="B339">
@@ -8395,9 +8395,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" t="str">
-        <f>_xlfn.CONCAT(B340,C340)</f>
+        <f t="shared" si="5"/>
         <v>2023Q3</v>
       </c>
       <c r="B340">
@@ -8416,9 +8416,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" t="str">
-        <f>_xlfn.CONCAT(B341,C341)</f>
+        <f t="shared" si="5"/>
         <v>2024Q2</v>
       </c>
       <c r="B341">
@@ -8437,9 +8437,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" t="str">
-        <f>_xlfn.CONCAT(B342,C342)</f>
+        <f t="shared" si="5"/>
         <v>2024Q3</v>
       </c>
       <c r="B342">
@@ -8458,9 +8458,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" t="str">
-        <f>_xlfn.CONCAT(B343,C343)</f>
+        <f t="shared" si="5"/>
         <v>2024Q4</v>
       </c>
       <c r="B343">
@@ -8479,9 +8479,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" t="str">
-        <f>_xlfn.CONCAT(B344,C344)</f>
+        <f t="shared" si="5"/>
         <v>2025Q1</v>
       </c>
       <c r="B344">
@@ -8500,9 +8500,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" t="str">
-        <f>_xlfn.CONCAT(B345,C345)</f>
+        <f t="shared" si="5"/>
         <v>2021Q1</v>
       </c>
       <c r="B345" s="2">
@@ -8521,9 +8521,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" t="str">
-        <f>_xlfn.CONCAT(B346,C346)</f>
+        <f t="shared" si="5"/>
         <v>2021Q1</v>
       </c>
       <c r="B346" s="2">
@@ -8542,9 +8542,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" t="str">
-        <f>_xlfn.CONCAT(B347,C347)</f>
+        <f t="shared" si="5"/>
         <v>2021Q2</v>
       </c>
       <c r="B347">
@@ -8563,9 +8563,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" t="str">
-        <f>_xlfn.CONCAT(B348,C348)</f>
+        <f t="shared" si="5"/>
         <v>2021Q3</v>
       </c>
       <c r="B348">
@@ -8585,9 +8585,9 @@
       </c>
       <c r="G348" s="1"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" t="str">
-        <f>_xlfn.CONCAT(B349,C349)</f>
+        <f t="shared" si="5"/>
         <v>2021Q4</v>
       </c>
       <c r="B349">
@@ -8607,9 +8607,9 @@
       </c>
       <c r="G349" s="1"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" t="str">
-        <f>_xlfn.CONCAT(B350,C350)</f>
+        <f t="shared" si="5"/>
         <v>2022Q1</v>
       </c>
       <c r="B350">
@@ -8629,9 +8629,9 @@
       </c>
       <c r="G350" s="1"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" t="str">
-        <f>_xlfn.CONCAT(B351,C351)</f>
+        <f t="shared" si="5"/>
         <v>2022Q3</v>
       </c>
       <c r="B351">
@@ -8651,9 +8651,9 @@
       </c>
       <c r="G351" s="1"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" t="str">
-        <f>_xlfn.CONCAT(B352,C352)</f>
+        <f t="shared" si="5"/>
         <v>2022Q4</v>
       </c>
       <c r="B352">
@@ -8673,9 +8673,9 @@
       </c>
       <c r="G352" s="1"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" t="str">
-        <f>_xlfn.CONCAT(B353,C353)</f>
+        <f t="shared" si="5"/>
         <v>2023Q1</v>
       </c>
       <c r="B353">
@@ -8695,9 +8695,9 @@
       </c>
       <c r="G353" s="1"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" t="str">
-        <f>_xlfn.CONCAT(B354,C354)</f>
+        <f t="shared" si="5"/>
         <v>2023Q2</v>
       </c>
       <c r="B354">
@@ -8716,9 +8716,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" t="str">
-        <f>_xlfn.CONCAT(B355,C355)</f>
+        <f t="shared" si="5"/>
         <v>2023Q3</v>
       </c>
       <c r="B355">
@@ -8738,9 +8738,9 @@
       </c>
       <c r="G355" s="1"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" t="str">
-        <f>_xlfn.CONCAT(B356,C356)</f>
+        <f t="shared" si="5"/>
         <v>2023Q4</v>
       </c>
       <c r="B356">
@@ -8759,9 +8759,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" t="str">
-        <f>_xlfn.CONCAT(B357,C357)</f>
+        <f t="shared" si="5"/>
         <v>2024Q2</v>
       </c>
       <c r="B357">
@@ -8781,9 +8781,9 @@
       </c>
       <c r="G357" s="1"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" t="str">
-        <f>_xlfn.CONCAT(B358,C358)</f>
+        <f t="shared" si="5"/>
         <v>2024Q3</v>
       </c>
       <c r="B358">
@@ -8803,9 +8803,9 @@
       </c>
       <c r="G358" s="1"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" t="str">
-        <f>_xlfn.CONCAT(B359,C359)</f>
+        <f t="shared" si="5"/>
         <v>2024Q4</v>
       </c>
       <c r="B359">
@@ -8825,9 +8825,9 @@
       </c>
       <c r="G359" s="1"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" t="str">
-        <f>_xlfn.CONCAT(B360,C360)</f>
+        <f t="shared" si="5"/>
         <v>2025Q1</v>
       </c>
       <c r="B360">
@@ -8847,9 +8847,9 @@
       </c>
       <c r="G360" s="1"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" t="str">
-        <f>_xlfn.CONCAT(B361,C361)</f>
+        <f t="shared" si="5"/>
         <v>2021Q1</v>
       </c>
       <c r="B361" s="2">
@@ -8869,9 +8869,9 @@
       </c>
       <c r="G361" s="1"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" t="str">
-        <f>_xlfn.CONCAT(B362,C362)</f>
+        <f t="shared" si="5"/>
         <v>2021Q2</v>
       </c>
       <c r="B362">
@@ -8891,9 +8891,9 @@
       </c>
       <c r="G362" s="1"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" t="str">
-        <f>_xlfn.CONCAT(B363,C363)</f>
+        <f t="shared" si="5"/>
         <v>2021Q3</v>
       </c>
       <c r="B363">
@@ -8913,9 +8913,9 @@
       </c>
       <c r="G363" s="1"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" t="str">
-        <f>_xlfn.CONCAT(B364,C364)</f>
+        <f t="shared" si="5"/>
         <v>2021Q4</v>
       </c>
       <c r="B364">
@@ -8935,9 +8935,9 @@
       </c>
       <c r="G364" s="1"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" t="str">
-        <f>_xlfn.CONCAT(B365,C365)</f>
+        <f t="shared" si="5"/>
         <v>2022Q1</v>
       </c>
       <c r="B365">
@@ -8957,9 +8957,9 @@
       </c>
       <c r="G365" s="1"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" t="str">
-        <f>_xlfn.CONCAT(B366,C366)</f>
+        <f t="shared" si="5"/>
         <v>2022Q3</v>
       </c>
       <c r="B366">
@@ -8979,9 +8979,9 @@
       </c>
       <c r="G366" s="1"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" t="str">
-        <f>_xlfn.CONCAT(B367,C367)</f>
+        <f t="shared" si="5"/>
         <v>2022Q4</v>
       </c>
       <c r="B367">
@@ -9001,9 +9001,9 @@
       </c>
       <c r="G367" s="1"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" t="str">
-        <f>_xlfn.CONCAT(B368,C368)</f>
+        <f t="shared" si="5"/>
         <v>2023Q1</v>
       </c>
       <c r="B368">
@@ -9023,9 +9023,9 @@
       </c>
       <c r="G368" s="1"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" t="str">
-        <f>_xlfn.CONCAT(B369,C369)</f>
+        <f t="shared" si="5"/>
         <v>2023Q2</v>
       </c>
       <c r="B369">
@@ -9045,9 +9045,9 @@
       </c>
       <c r="G369" s="1"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" t="str">
-        <f>_xlfn.CONCAT(B370,C370)</f>
+        <f t="shared" si="5"/>
         <v>2023Q3</v>
       </c>
       <c r="B370">
@@ -9067,9 +9067,9 @@
       </c>
       <c r="G370" s="1"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" t="str">
-        <f>_xlfn.CONCAT(B371,C371)</f>
+        <f t="shared" si="5"/>
         <v>2023Q4</v>
       </c>
       <c r="B371">
@@ -9088,9 +9088,9 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" t="str">
-        <f>_xlfn.CONCAT(B372,C372)</f>
+        <f t="shared" si="5"/>
         <v>2024Q1</v>
       </c>
       <c r="B372">
@@ -9109,9 +9109,9 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" t="str">
-        <f>_xlfn.CONCAT(B373,C373)</f>
+        <f t="shared" si="5"/>
         <v>2024Q2</v>
       </c>
       <c r="B373">
@@ -9130,9 +9130,9 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" t="str">
-        <f>_xlfn.CONCAT(B374,C374)</f>
+        <f t="shared" si="5"/>
         <v>2024Q3</v>
       </c>
       <c r="B374">
@@ -9151,9 +9151,9 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" t="str">
-        <f>_xlfn.CONCAT(B375,C375)</f>
+        <f t="shared" si="5"/>
         <v>2024Q4</v>
       </c>
       <c r="B375">
@@ -9172,9 +9172,9 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" t="str">
-        <f>_xlfn.CONCAT(B376,C376)</f>
+        <f t="shared" si="5"/>
         <v>2022Q4</v>
       </c>
       <c r="B376">
@@ -9193,9 +9193,9 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" t="str">
-        <f>_xlfn.CONCAT(B377,C377)</f>
+        <f t="shared" si="5"/>
         <v>2023Q1</v>
       </c>
       <c r="B377">
@@ -9214,9 +9214,9 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" t="str">
-        <f>_xlfn.CONCAT(B378,C378)</f>
+        <f t="shared" si="5"/>
         <v>2023Q2</v>
       </c>
       <c r="B378">
@@ -9235,9 +9235,9 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" t="str">
-        <f>_xlfn.CONCAT(B379,C379)</f>
+        <f t="shared" si="5"/>
         <v>2023Q3</v>
       </c>
       <c r="B379">
@@ -9256,9 +9256,9 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" t="str">
-        <f>_xlfn.CONCAT(B380,C380)</f>
+        <f t="shared" si="5"/>
         <v>2023Q4</v>
       </c>
       <c r="B380">
@@ -9277,9 +9277,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" t="str">
-        <f>_xlfn.CONCAT(B381,C381)</f>
+        <f t="shared" si="5"/>
         <v>2024Q2</v>
       </c>
       <c r="B381">
@@ -9298,9 +9298,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" t="str">
-        <f>_xlfn.CONCAT(B382,C382)</f>
+        <f t="shared" si="5"/>
         <v>2024Q3</v>
       </c>
       <c r="B382">
@@ -9319,9 +9319,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" t="str">
-        <f>_xlfn.CONCAT(B383,C383)</f>
+        <f t="shared" si="5"/>
         <v>2024Q4</v>
       </c>
       <c r="B383">
@@ -9340,9 +9340,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" t="str">
-        <f>_xlfn.CONCAT(B384,C384)</f>
+        <f t="shared" si="5"/>
         <v>2025Q1</v>
       </c>
       <c r="B384">
@@ -9361,9 +9361,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="str">
-        <f>_xlfn.CONCAT(B385,C385)</f>
+        <f t="shared" si="5"/>
         <v>2021Q1</v>
       </c>
       <c r="B385" s="2">
@@ -9382,9 +9382,9 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="str">
-        <f>_xlfn.CONCAT(B386,C386)</f>
+        <f t="shared" ref="A386:A449" si="6">_xlfn.CONCAT(B386,C386)</f>
         <v>2021Q2</v>
       </c>
       <c r="B386">
@@ -9403,9 +9403,9 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="str">
-        <f>_xlfn.CONCAT(B387,C387)</f>
+        <f t="shared" si="6"/>
         <v>2021Q3</v>
       </c>
       <c r="B387">
@@ -9424,9 +9424,9 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="str">
-        <f>_xlfn.CONCAT(B388,C388)</f>
+        <f t="shared" si="6"/>
         <v>2021Q4</v>
       </c>
       <c r="B388">
@@ -9445,9 +9445,9 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="str">
-        <f>_xlfn.CONCAT(B389,C389)</f>
+        <f t="shared" si="6"/>
         <v>2022Q1</v>
       </c>
       <c r="B389">
@@ -9466,9 +9466,9 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="str">
-        <f>_xlfn.CONCAT(B390,C390)</f>
+        <f t="shared" si="6"/>
         <v>2022Q2</v>
       </c>
       <c r="B390">
@@ -9487,9 +9487,9 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="str">
-        <f>_xlfn.CONCAT(B391,C391)</f>
+        <f t="shared" si="6"/>
         <v>2022Q3</v>
       </c>
       <c r="B391">
@@ -9508,9 +9508,9 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="str">
-        <f>_xlfn.CONCAT(B392,C392)</f>
+        <f t="shared" si="6"/>
         <v>2022Q4</v>
       </c>
       <c r="B392">
@@ -9529,9 +9529,9 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="str">
-        <f>_xlfn.CONCAT(B393,C393)</f>
+        <f t="shared" si="6"/>
         <v>2023Q1</v>
       </c>
       <c r="B393">
@@ -9550,9 +9550,9 @@
         <v>10100</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="str">
-        <f>_xlfn.CONCAT(B394,C394)</f>
+        <f t="shared" si="6"/>
         <v>2023Q2</v>
       </c>
       <c r="B394">
@@ -9571,9 +9571,9 @@
         <v>10100</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="str">
-        <f>_xlfn.CONCAT(B395,C395)</f>
+        <f t="shared" si="6"/>
         <v>2023Q3</v>
       </c>
       <c r="B395">
@@ -9592,9 +9592,9 @@
         <v>10100</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="str">
-        <f>_xlfn.CONCAT(B396,C396)</f>
+        <f t="shared" si="6"/>
         <v>2023Q4</v>
       </c>
       <c r="B396">
@@ -9613,9 +9613,9 @@
         <v>10100</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="str">
-        <f>_xlfn.CONCAT(B397,C397)</f>
+        <f t="shared" si="6"/>
         <v>2024Q1</v>
       </c>
       <c r="B397">
@@ -9634,9 +9634,9 @@
         <v>10100</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="str">
-        <f>_xlfn.CONCAT(B398,C398)</f>
+        <f t="shared" si="6"/>
         <v>2024Q2</v>
       </c>
       <c r="B398">
@@ -9655,9 +9655,9 @@
         <v>10100</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="str">
-        <f>_xlfn.CONCAT(B399,C399)</f>
+        <f t="shared" si="6"/>
         <v>2024Q3</v>
       </c>
       <c r="B399">
@@ -9676,9 +9676,9 @@
         <v>10100</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="str">
-        <f>_xlfn.CONCAT(B400,C400)</f>
+        <f t="shared" si="6"/>
         <v>2024Q4</v>
       </c>
       <c r="B400">
@@ -9697,9 +9697,9 @@
         <v>20400</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" t="str">
-        <f>_xlfn.CONCAT(B401,C401)</f>
+        <f t="shared" si="6"/>
         <v>2021Q1</v>
       </c>
       <c r="B401" s="2">
@@ -9718,9 +9718,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" t="str">
-        <f>_xlfn.CONCAT(B402,C402)</f>
+        <f t="shared" si="6"/>
         <v>2021Q2</v>
       </c>
       <c r="B402">
@@ -9739,9 +9739,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" t="str">
-        <f>_xlfn.CONCAT(B403,C403)</f>
+        <f t="shared" si="6"/>
         <v>2021Q3</v>
       </c>
       <c r="B403">
@@ -9760,9 +9760,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" t="str">
-        <f>_xlfn.CONCAT(B404,C404)</f>
+        <f t="shared" si="6"/>
         <v>2021Q4</v>
       </c>
       <c r="B404">
@@ -9781,9 +9781,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" t="str">
-        <f>_xlfn.CONCAT(B405,C405)</f>
+        <f t="shared" si="6"/>
         <v>2022Q1</v>
       </c>
       <c r="B405">
@@ -9802,9 +9802,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" t="str">
-        <f>_xlfn.CONCAT(B406,C406)</f>
+        <f t="shared" si="6"/>
         <v>2022Q2</v>
       </c>
       <c r="B406">
@@ -9823,9 +9823,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" t="str">
-        <f>_xlfn.CONCAT(B407,C407)</f>
+        <f t="shared" si="6"/>
         <v>2022Q3</v>
       </c>
       <c r="B407">
@@ -9844,9 +9844,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" t="str">
-        <f>_xlfn.CONCAT(B408,C408)</f>
+        <f t="shared" si="6"/>
         <v>2022Q4</v>
       </c>
       <c r="B408">
@@ -9865,9 +9865,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" t="str">
-        <f>_xlfn.CONCAT(B409,C409)</f>
+        <f t="shared" si="6"/>
         <v>2023Q1</v>
       </c>
       <c r="B409">
@@ -9886,9 +9886,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" t="str">
-        <f>_xlfn.CONCAT(B410,C410)</f>
+        <f t="shared" si="6"/>
         <v>2023Q2</v>
       </c>
       <c r="B410">
@@ -9907,9 +9907,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" t="str">
-        <f>_xlfn.CONCAT(B411,C411)</f>
+        <f t="shared" si="6"/>
         <v>2023Q3</v>
       </c>
       <c r="B411">
@@ -9928,9 +9928,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" t="str">
-        <f>_xlfn.CONCAT(B412,C412)</f>
+        <f t="shared" si="6"/>
         <v>2023Q4</v>
       </c>
       <c r="B412">
@@ -9949,9 +9949,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" t="str">
-        <f>_xlfn.CONCAT(B413,C413)</f>
+        <f t="shared" si="6"/>
         <v>2024Q1</v>
       </c>
       <c r="B413">
@@ -9970,9 +9970,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" t="str">
-        <f>_xlfn.CONCAT(B414,C414)</f>
+        <f t="shared" si="6"/>
         <v>2024Q2</v>
       </c>
       <c r="B414">
@@ -9992,9 +9992,9 @@
       </c>
       <c r="H414" s="1"/>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" t="str">
-        <f>_xlfn.CONCAT(B415,C415)</f>
+        <f t="shared" si="6"/>
         <v>2024Q3</v>
       </c>
       <c r="B415">
@@ -10013,9 +10013,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" t="str">
-        <f>_xlfn.CONCAT(B416,C416)</f>
+        <f t="shared" si="6"/>
         <v>2024Q4</v>
       </c>
       <c r="B416">
@@ -10034,9 +10034,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" t="str">
-        <f>_xlfn.CONCAT(B417,C417)</f>
+        <f t="shared" si="6"/>
         <v>2025Q1</v>
       </c>
       <c r="B417">
@@ -10055,9 +10055,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" t="str">
-        <f>_xlfn.CONCAT(B418,C418)</f>
+        <f t="shared" si="6"/>
         <v>2024Q3</v>
       </c>
       <c r="B418">
@@ -10076,9 +10076,9 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" t="str">
-        <f>_xlfn.CONCAT(B419,C419)</f>
+        <f t="shared" si="6"/>
         <v>2024Q4</v>
       </c>
       <c r="B419">
@@ -10097,9 +10097,9 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" t="str">
-        <f>_xlfn.CONCAT(B420,C420)</f>
+        <f t="shared" si="6"/>
         <v>2025Q1</v>
       </c>
       <c r="B420">
@@ -10118,9 +10118,9 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" t="str">
-        <f>_xlfn.CONCAT(B421,C421)</f>
+        <f t="shared" si="6"/>
         <v>2024Q2</v>
       </c>
       <c r="B421">
@@ -10139,9 +10139,9 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" t="str">
-        <f>_xlfn.CONCAT(B422,C422)</f>
+        <f t="shared" si="6"/>
         <v>2024Q3</v>
       </c>
       <c r="B422">
@@ -10160,9 +10160,9 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" t="str">
-        <f>_xlfn.CONCAT(B423,C423)</f>
+        <f t="shared" si="6"/>
         <v>2024Q4</v>
       </c>
       <c r="B423">
@@ -10181,9 +10181,9 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" t="str">
-        <f>_xlfn.CONCAT(B424,C424)</f>
+        <f t="shared" si="6"/>
         <v>2025Q1</v>
       </c>
       <c r="B424">
@@ -10202,9 +10202,9 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" t="str">
-        <f>_xlfn.CONCAT(B425,C425)</f>
+        <f t="shared" si="6"/>
         <v>2021Q1</v>
       </c>
       <c r="B425" s="2">
@@ -10223,9 +10223,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" t="str">
-        <f>_xlfn.CONCAT(B426,C426)</f>
+        <f t="shared" si="6"/>
         <v>2021Q2</v>
       </c>
       <c r="B426">
@@ -10244,9 +10244,9 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" t="str">
-        <f>_xlfn.CONCAT(B427,C427)</f>
+        <f t="shared" si="6"/>
         <v>2021Q1</v>
       </c>
       <c r="B427" s="2">
@@ -10265,9 +10265,9 @@
         <v>460</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" t="str">
-        <f>_xlfn.CONCAT(B428,C428)</f>
+        <f t="shared" si="6"/>
         <v>2021Q2</v>
       </c>
       <c r="B428">
@@ -10286,9 +10286,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" t="str">
-        <f>_xlfn.CONCAT(B429,C429)</f>
+        <f t="shared" si="6"/>
         <v>2021Q4</v>
       </c>
       <c r="B429">
@@ -10307,9 +10307,9 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" t="str">
-        <f>_xlfn.CONCAT(B430,C430)</f>
+        <f t="shared" si="6"/>
         <v>2022Q1</v>
       </c>
       <c r="B430">
@@ -10328,9 +10328,9 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" t="str">
-        <f>_xlfn.CONCAT(B431,C431)</f>
+        <f t="shared" si="6"/>
         <v>2022Q2</v>
       </c>
       <c r="B431">
@@ -10349,9 +10349,9 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" t="str">
-        <f>_xlfn.CONCAT(B432,C432)</f>
+        <f t="shared" si="6"/>
         <v>2022Q3</v>
       </c>
       <c r="B432">
@@ -10370,9 +10370,9 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" t="str">
-        <f>_xlfn.CONCAT(B433,C433)</f>
+        <f t="shared" si="6"/>
         <v>2022Q4</v>
       </c>
       <c r="B433">
@@ -10391,9 +10391,9 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" t="str">
-        <f>_xlfn.CONCAT(B434,C434)</f>
+        <f t="shared" si="6"/>
         <v>2023Q1</v>
       </c>
       <c r="B434">
@@ -10412,9 +10412,9 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" t="str">
-        <f>_xlfn.CONCAT(B435,C435)</f>
+        <f t="shared" si="6"/>
         <v>2023Q2</v>
       </c>
       <c r="B435">
@@ -10433,9 +10433,9 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" t="str">
-        <f>_xlfn.CONCAT(B436,C436)</f>
+        <f t="shared" si="6"/>
         <v>2023Q3</v>
       </c>
       <c r="B436">
@@ -10454,9 +10454,9 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" t="str">
-        <f>_xlfn.CONCAT(B437,C437)</f>
+        <f t="shared" si="6"/>
         <v>2023Q4</v>
       </c>
       <c r="B437">
@@ -10475,9 +10475,9 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" t="str">
-        <f>_xlfn.CONCAT(B438,C438)</f>
+        <f t="shared" si="6"/>
         <v>2021Q1</v>
       </c>
       <c r="B438" s="2">
@@ -10496,9 +10496,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" t="str">
-        <f>_xlfn.CONCAT(B439,C439)</f>
+        <f t="shared" si="6"/>
         <v>2021Q2</v>
       </c>
       <c r="B439">
@@ -10517,9 +10517,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" t="str">
-        <f>_xlfn.CONCAT(B440,C440)</f>
+        <f t="shared" si="6"/>
         <v>2021Q3</v>
       </c>
       <c r="B440">
@@ -10538,9 +10538,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" t="str">
-        <f>_xlfn.CONCAT(B441,C441)</f>
+        <f t="shared" si="6"/>
         <v>2021Q4</v>
       </c>
       <c r="B441">
@@ -10559,9 +10559,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" t="str">
-        <f>_xlfn.CONCAT(B442,C442)</f>
+        <f t="shared" si="6"/>
         <v>2022Q1</v>
       </c>
       <c r="B442">
@@ -10580,9 +10580,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" t="str">
-        <f>_xlfn.CONCAT(B443,C443)</f>
+        <f t="shared" si="6"/>
         <v>2022Q2</v>
       </c>
       <c r="B443">
@@ -10601,9 +10601,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" t="str">
-        <f>_xlfn.CONCAT(B444,C444)</f>
+        <f t="shared" si="6"/>
         <v>2022Q3</v>
       </c>
       <c r="B444">
@@ -10622,9 +10622,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" t="str">
-        <f>_xlfn.CONCAT(B445,C445)</f>
+        <f t="shared" si="6"/>
         <v>2023Q1</v>
       </c>
       <c r="B445">
@@ -10643,9 +10643,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" t="str">
-        <f>_xlfn.CONCAT(B446,C446)</f>
+        <f t="shared" si="6"/>
         <v>2023Q2</v>
       </c>
       <c r="B446">
@@ -10664,9 +10664,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" t="str">
-        <f>_xlfn.CONCAT(B447,C447)</f>
+        <f t="shared" si="6"/>
         <v>2023Q3</v>
       </c>
       <c r="B447">
@@ -10685,9 +10685,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" t="str">
-        <f>_xlfn.CONCAT(B448,C448)</f>
+        <f t="shared" si="6"/>
         <v>2023Q4</v>
       </c>
       <c r="B448">
@@ -10706,9 +10706,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" t="str">
-        <f>_xlfn.CONCAT(B449,C449)</f>
+        <f t="shared" si="6"/>
         <v>2024Q1</v>
       </c>
       <c r="B449">
@@ -10727,9 +10727,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" t="str">
-        <f>_xlfn.CONCAT(B450,C450)</f>
+        <f t="shared" ref="A450:A513" si="7">_xlfn.CONCAT(B450,C450)</f>
         <v>2024Q2</v>
       </c>
       <c r="B450">
@@ -10748,9 +10748,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" t="str">
-        <f>_xlfn.CONCAT(B451,C451)</f>
+        <f t="shared" si="7"/>
         <v>2024Q3</v>
       </c>
       <c r="B451">
@@ -10769,9 +10769,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" t="str">
-        <f>_xlfn.CONCAT(B452,C452)</f>
+        <f t="shared" si="7"/>
         <v>2024Q4</v>
       </c>
       <c r="B452">
@@ -10790,9 +10790,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" t="str">
-        <f>_xlfn.CONCAT(B453,C453)</f>
+        <f t="shared" si="7"/>
         <v>2025Q1</v>
       </c>
       <c r="B453">
@@ -10811,9 +10811,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" t="str">
-        <f>_xlfn.CONCAT(B454,C454)</f>
+        <f t="shared" si="7"/>
         <v>2024Q3</v>
       </c>
       <c r="B454">
@@ -10832,9 +10832,9 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" t="str">
-        <f>_xlfn.CONCAT(B455,C455)</f>
+        <f t="shared" si="7"/>
         <v>2024Q4</v>
       </c>
       <c r="B455">
@@ -10853,9 +10853,9 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" t="str">
-        <f>_xlfn.CONCAT(B456,C456)</f>
+        <f t="shared" si="7"/>
         <v>2025Q1</v>
       </c>
       <c r="B456">
@@ -10874,9 +10874,9 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" t="str">
-        <f>_xlfn.CONCAT(B457,C457)</f>
+        <f t="shared" si="7"/>
         <v>2021Q1</v>
       </c>
       <c r="B457" s="2">
@@ -10895,9 +10895,9 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" t="str">
-        <f>_xlfn.CONCAT(B458,C458)</f>
+        <f t="shared" si="7"/>
         <v>2021Q2</v>
       </c>
       <c r="B458">
@@ -10916,9 +10916,9 @@
         <v>14100</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" t="str">
-        <f>_xlfn.CONCAT(B459,C459)</f>
+        <f t="shared" si="7"/>
         <v>2021Q3</v>
       </c>
       <c r="B459">
@@ -10937,9 +10937,9 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" t="str">
-        <f>_xlfn.CONCAT(B460,C460)</f>
+        <f t="shared" si="7"/>
         <v>2021Q4</v>
       </c>
       <c r="B460">
@@ -10958,9 +10958,9 @@
         <v>19100</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" t="str">
-        <f>_xlfn.CONCAT(B461,C461)</f>
+        <f t="shared" si="7"/>
         <v>2022Q1</v>
       </c>
       <c r="B461">
@@ -10979,9 +10979,9 @@
         <v>19100</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" t="str">
-        <f>_xlfn.CONCAT(B462,C462)</f>
+        <f t="shared" si="7"/>
         <v>2022Q2</v>
       </c>
       <c r="B462">
@@ -11000,9 +11000,9 @@
         <v>24600</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" t="str">
-        <f>_xlfn.CONCAT(B463,C463)</f>
+        <f t="shared" si="7"/>
         <v>2022Q3</v>
       </c>
       <c r="B463">
@@ -11021,9 +11021,9 @@
         <v>24600</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" t="str">
-        <f>_xlfn.CONCAT(B464,C464)</f>
+        <f t="shared" si="7"/>
         <v>2022Q4</v>
       </c>
       <c r="B464">
@@ -11042,9 +11042,9 @@
         <v>29200</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" t="str">
-        <f>_xlfn.CONCAT(B465,C465)</f>
+        <f t="shared" si="7"/>
         <v>2023Q1</v>
       </c>
       <c r="B465">
@@ -11063,9 +11063,9 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" t="str">
-        <f>_xlfn.CONCAT(B466,C466)</f>
+        <f t="shared" si="7"/>
         <v>2023Q2</v>
       </c>
       <c r="B466">
@@ -11084,9 +11084,9 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" t="str">
-        <f>_xlfn.CONCAT(B467,C467)</f>
+        <f t="shared" si="7"/>
         <v>2023Q3</v>
       </c>
       <c r="B467">
@@ -11105,9 +11105,9 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" t="str">
-        <f>_xlfn.CONCAT(B468,C468)</f>
+        <f t="shared" si="7"/>
         <v>2023Q4</v>
       </c>
       <c r="B468">
@@ -11126,9 +11126,9 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" t="str">
-        <f>_xlfn.CONCAT(B469,C469)</f>
+        <f t="shared" si="7"/>
         <v>2024Q1</v>
       </c>
       <c r="B469">
@@ -11147,9 +11147,9 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" t="str">
-        <f>_xlfn.CONCAT(B470,C470)</f>
+        <f t="shared" si="7"/>
         <v>2024Q2</v>
       </c>
       <c r="B470">
@@ -11168,9 +11168,9 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" t="str">
-        <f>_xlfn.CONCAT(B471,C471)</f>
+        <f t="shared" si="7"/>
         <v>2024Q3</v>
       </c>
       <c r="B471">
@@ -11189,9 +11189,9 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" t="str">
-        <f>_xlfn.CONCAT(B472,C472)</f>
+        <f t="shared" si="7"/>
         <v>2024Q4</v>
       </c>
       <c r="B472">
@@ -11210,9 +11210,9 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" t="str">
-        <f>_xlfn.CONCAT(B473,C473)</f>
+        <f t="shared" si="7"/>
         <v>2025Q1</v>
       </c>
       <c r="B473">
@@ -11231,9 +11231,9 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" t="str">
-        <f>_xlfn.CONCAT(B474,C474)</f>
+        <f t="shared" si="7"/>
         <v>2023Q4</v>
       </c>
       <c r="B474">
@@ -11252,9 +11252,9 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" t="str">
-        <f>_xlfn.CONCAT(B475,C475)</f>
+        <f t="shared" si="7"/>
         <v>2024Q1</v>
       </c>
       <c r="B475">
@@ -11273,9 +11273,9 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" t="str">
-        <f>_xlfn.CONCAT(B476,C476)</f>
+        <f t="shared" si="7"/>
         <v>2024Q2</v>
       </c>
       <c r="B476">
@@ -11294,9 +11294,9 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" t="str">
-        <f>_xlfn.CONCAT(B477,C477)</f>
+        <f t="shared" si="7"/>
         <v>2024Q3</v>
       </c>
       <c r="B477">
@@ -11315,9 +11315,9 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" t="str">
-        <f>_xlfn.CONCAT(B478,C478)</f>
+        <f t="shared" si="7"/>
         <v>2024Q4</v>
       </c>
       <c r="B478">
@@ -11336,9 +11336,9 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" t="str">
-        <f>_xlfn.CONCAT(B479,C479)</f>
+        <f t="shared" si="7"/>
         <v>2025Q1</v>
       </c>
       <c r="B479">
@@ -11357,9 +11357,9 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" t="str">
-        <f>_xlfn.CONCAT(B480,C480)</f>
+        <f t="shared" si="7"/>
         <v>2023Q3</v>
       </c>
       <c r="B480">
@@ -11378,9 +11378,9 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" t="str">
-        <f>_xlfn.CONCAT(B481,C481)</f>
+        <f t="shared" si="7"/>
         <v>2025Q1</v>
       </c>
       <c r="B481">
@@ -11399,9 +11399,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" t="str">
-        <f>_xlfn.CONCAT(B482,C482)</f>
+        <f t="shared" si="7"/>
         <v>2021Q1</v>
       </c>
       <c r="B482" s="2">
@@ -11420,9 +11420,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" t="str">
-        <f>_xlfn.CONCAT(B483,C483)</f>
+        <f t="shared" si="7"/>
         <v>2021Q2</v>
       </c>
       <c r="B483">
@@ -11441,9 +11441,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" t="str">
-        <f>_xlfn.CONCAT(B484,C484)</f>
+        <f t="shared" si="7"/>
         <v>2021Q3</v>
       </c>
       <c r="B484">
@@ -11462,9 +11462,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" t="str">
-        <f>_xlfn.CONCAT(B485,C485)</f>
+        <f t="shared" si="7"/>
         <v>2021Q4</v>
       </c>
       <c r="B485">
@@ -11483,9 +11483,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" t="str">
-        <f>_xlfn.CONCAT(B486,C486)</f>
+        <f t="shared" si="7"/>
         <v>2022Q1</v>
       </c>
       <c r="B486">
@@ -11504,9 +11504,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" t="str">
-        <f>_xlfn.CONCAT(B487,C487)</f>
+        <f t="shared" si="7"/>
         <v>2022Q2</v>
       </c>
       <c r="B487">
@@ -11525,9 +11525,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" t="str">
-        <f>_xlfn.CONCAT(B488,C488)</f>
+        <f t="shared" si="7"/>
         <v>2022Q3</v>
       </c>
       <c r="B488">
@@ -11546,9 +11546,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" t="str">
-        <f>_xlfn.CONCAT(B489,C489)</f>
+        <f t="shared" si="7"/>
         <v>2021Q1</v>
       </c>
       <c r="B489" s="2">
@@ -11567,9 +11567,9 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" t="str">
-        <f>_xlfn.CONCAT(B490,C490)</f>
+        <f t="shared" si="7"/>
         <v>2021Q2</v>
       </c>
       <c r="B490">
@@ -11588,9 +11588,9 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" t="str">
-        <f>_xlfn.CONCAT(B491,C491)</f>
+        <f t="shared" si="7"/>
         <v>2021Q3</v>
       </c>
       <c r="B491">
@@ -11609,9 +11609,9 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492" t="str">
-        <f>_xlfn.CONCAT(B492,C492)</f>
+        <f t="shared" si="7"/>
         <v>2021Q4</v>
       </c>
       <c r="B492">
@@ -11630,9 +11630,9 @@
         <v>7750</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493" t="str">
-        <f>_xlfn.CONCAT(B493,C493)</f>
+        <f t="shared" si="7"/>
         <v>2022Q1</v>
       </c>
       <c r="B493">
@@ -11651,9 +11651,9 @@
         <v>7750</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" t="str">
-        <f>_xlfn.CONCAT(B494,C494)</f>
+        <f t="shared" si="7"/>
         <v>2022Q2</v>
       </c>
       <c r="B494">
@@ -11672,9 +11672,9 @@
         <v>7750</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" t="str">
-        <f>_xlfn.CONCAT(B495,C495)</f>
+        <f t="shared" si="7"/>
         <v>2022Q3</v>
       </c>
       <c r="B495">
@@ -11693,9 +11693,9 @@
         <v>7750</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" t="str">
-        <f>_xlfn.CONCAT(B496,C496)</f>
+        <f t="shared" si="7"/>
         <v>2022Q4</v>
       </c>
       <c r="B496">
@@ -11714,9 +11714,9 @@
         <v>7750</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497" t="str">
-        <f>_xlfn.CONCAT(B497,C497)</f>
+        <f t="shared" si="7"/>
         <v>2023Q1</v>
       </c>
       <c r="B497">
@@ -11735,9 +11735,9 @@
         <v>7750</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498" t="str">
-        <f>_xlfn.CONCAT(B498,C498)</f>
+        <f t="shared" si="7"/>
         <v>2023Q2</v>
       </c>
       <c r="B498">
@@ -11756,9 +11756,9 @@
         <v>7750</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499" t="str">
-        <f>_xlfn.CONCAT(B499,C499)</f>
+        <f t="shared" si="7"/>
         <v>2023Q3</v>
       </c>
       <c r="B499">
@@ -11777,9 +11777,9 @@
         <v>7750</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500" t="str">
-        <f>_xlfn.CONCAT(B500,C500)</f>
+        <f t="shared" si="7"/>
         <v>2023Q4</v>
       </c>
       <c r="B500">
@@ -11798,9 +11798,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501" t="str">
-        <f>_xlfn.CONCAT(B501,C501)</f>
+        <f t="shared" si="7"/>
         <v>2024Q1</v>
       </c>
       <c r="B501">
@@ -11819,9 +11819,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502" t="str">
-        <f>_xlfn.CONCAT(B502,C502)</f>
+        <f t="shared" si="7"/>
         <v>2024Q2</v>
       </c>
       <c r="B502">
@@ -11840,9 +11840,9 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503" t="str">
-        <f>_xlfn.CONCAT(B503,C503)</f>
+        <f t="shared" si="7"/>
         <v>2024Q3</v>
       </c>
       <c r="B503">
@@ -11861,9 +11861,9 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504" t="str">
-        <f>_xlfn.CONCAT(B504,C504)</f>
+        <f t="shared" si="7"/>
         <v>2024Q4</v>
       </c>
       <c r="B504">
@@ -11882,9 +11882,9 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505" t="str">
-        <f>_xlfn.CONCAT(B505,C505)</f>
+        <f t="shared" si="7"/>
         <v>2025Q1</v>
       </c>
       <c r="B505">
@@ -11903,9 +11903,9 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506" t="str">
-        <f>_xlfn.CONCAT(B506,C506)</f>
+        <f t="shared" si="7"/>
         <v>2021Q1</v>
       </c>
       <c r="B506" s="2">
@@ -11924,9 +11924,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507" t="str">
-        <f>_xlfn.CONCAT(B507,C507)</f>
+        <f t="shared" si="7"/>
         <v>2021Q2</v>
       </c>
       <c r="B507">
@@ -11945,9 +11945,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508" t="str">
-        <f>_xlfn.CONCAT(B508,C508)</f>
+        <f t="shared" si="7"/>
         <v>2021Q3</v>
       </c>
       <c r="B508">
@@ -11966,9 +11966,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509" t="str">
-        <f>_xlfn.CONCAT(B509,C509)</f>
+        <f t="shared" si="7"/>
         <v>2021Q4</v>
       </c>
       <c r="B509">
@@ -11987,9 +11987,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510" t="str">
-        <f>_xlfn.CONCAT(B510,C510)</f>
+        <f t="shared" si="7"/>
         <v>2022Q1</v>
       </c>
       <c r="B510">
@@ -12008,9 +12008,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511" t="str">
-        <f>_xlfn.CONCAT(B511,C511)</f>
+        <f t="shared" si="7"/>
         <v>2022Q2</v>
       </c>
       <c r="B511">
@@ -12029,9 +12029,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512" t="str">
-        <f>_xlfn.CONCAT(B512,C512)</f>
+        <f t="shared" si="7"/>
         <v>2022Q4</v>
       </c>
       <c r="B512">
@@ -12050,9 +12050,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513" t="str">
-        <f>_xlfn.CONCAT(B513,C513)</f>
+        <f t="shared" si="7"/>
         <v>2023Q1</v>
       </c>
       <c r="B513">
@@ -12071,9 +12071,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514" t="str">
-        <f>_xlfn.CONCAT(B514,C514)</f>
+        <f t="shared" ref="A514:A577" si="8">_xlfn.CONCAT(B514,C514)</f>
         <v>2023Q2</v>
       </c>
       <c r="B514">
@@ -12092,9 +12092,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515" t="str">
-        <f>_xlfn.CONCAT(B515,C515)</f>
+        <f t="shared" si="8"/>
         <v>2023Q3</v>
       </c>
       <c r="B515">
@@ -12113,9 +12113,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516" t="str">
-        <f>_xlfn.CONCAT(B516,C516)</f>
+        <f t="shared" si="8"/>
         <v>2023Q4</v>
       </c>
       <c r="B516">
@@ -12134,9 +12134,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517" t="str">
-        <f>_xlfn.CONCAT(B517,C517)</f>
+        <f t="shared" si="8"/>
         <v>2021Q1</v>
       </c>
       <c r="B517" s="2">
@@ -12155,9 +12155,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518" t="str">
-        <f>_xlfn.CONCAT(B518,C518)</f>
+        <f t="shared" si="8"/>
         <v>2021Q2</v>
       </c>
       <c r="B518">
@@ -12176,9 +12176,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519" t="str">
-        <f>_xlfn.CONCAT(B519,C519)</f>
+        <f t="shared" si="8"/>
         <v>2021Q3</v>
       </c>
       <c r="B519">
@@ -12197,9 +12197,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520" t="str">
-        <f>_xlfn.CONCAT(B520,C520)</f>
+        <f t="shared" si="8"/>
         <v>2022Q4</v>
       </c>
       <c r="B520">
@@ -12218,9 +12218,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521" t="str">
-        <f>_xlfn.CONCAT(B521,C521)</f>
+        <f t="shared" si="8"/>
         <v>2023Q1</v>
       </c>
       <c r="B521">
@@ -12239,9 +12239,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522" t="str">
-        <f>_xlfn.CONCAT(B522,C522)</f>
+        <f t="shared" si="8"/>
         <v>2023Q2</v>
       </c>
       <c r="B522">
@@ -12260,9 +12260,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523" t="str">
-        <f>_xlfn.CONCAT(B523,C523)</f>
+        <f t="shared" si="8"/>
         <v>2023Q2</v>
       </c>
       <c r="B523">
@@ -12281,9 +12281,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524" t="str">
-        <f>_xlfn.CONCAT(B524,C524)</f>
+        <f t="shared" si="8"/>
         <v>2023Q3</v>
       </c>
       <c r="B524">
@@ -12302,9 +12302,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525" t="str">
-        <f>_xlfn.CONCAT(B525,C525)</f>
+        <f t="shared" si="8"/>
         <v>2023Q4</v>
       </c>
       <c r="B525">
@@ -12323,9 +12323,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526" t="str">
-        <f>_xlfn.CONCAT(B526,C526)</f>
+        <f t="shared" si="8"/>
         <v>2024Q2</v>
       </c>
       <c r="B526">
@@ -12344,9 +12344,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527" t="str">
-        <f>_xlfn.CONCAT(B527,C527)</f>
+        <f t="shared" si="8"/>
         <v>2024Q3</v>
       </c>
       <c r="B527">
@@ -12365,9 +12365,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528" t="str">
-        <f>_xlfn.CONCAT(B528,C528)</f>
+        <f t="shared" si="8"/>
         <v>2024Q4</v>
       </c>
       <c r="B528">
@@ -12386,9 +12386,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" t="str">
-        <f>_xlfn.CONCAT(B529,C529)</f>
+        <f t="shared" si="8"/>
         <v>2025Q1</v>
       </c>
       <c r="B529">
@@ -12407,9 +12407,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530" t="str">
-        <f>_xlfn.CONCAT(B530,C530)</f>
+        <f t="shared" si="8"/>
         <v>2021Q1</v>
       </c>
       <c r="B530" s="2">
@@ -12428,9 +12428,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531" t="str">
-        <f>_xlfn.CONCAT(B531,C531)</f>
+        <f t="shared" si="8"/>
         <v>2021Q2</v>
       </c>
       <c r="B531">
@@ -12449,9 +12449,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532" t="str">
-        <f>_xlfn.CONCAT(B532,C532)</f>
+        <f t="shared" si="8"/>
         <v>2021Q3</v>
       </c>
       <c r="B532">
@@ -12470,9 +12470,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533" t="str">
-        <f>_xlfn.CONCAT(B533,C533)</f>
+        <f t="shared" si="8"/>
         <v>2021Q4</v>
       </c>
       <c r="B533">
@@ -12491,9 +12491,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534" t="str">
-        <f>_xlfn.CONCAT(B534,C534)</f>
+        <f t="shared" si="8"/>
         <v>2022Q1</v>
       </c>
       <c r="B534">
@@ -12512,9 +12512,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535" t="str">
-        <f>_xlfn.CONCAT(B535,C535)</f>
+        <f t="shared" si="8"/>
         <v>2022Q2</v>
       </c>
       <c r="B535">
@@ -12533,9 +12533,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536" t="str">
-        <f>_xlfn.CONCAT(B536,C536)</f>
+        <f t="shared" si="8"/>
         <v>2022Q3</v>
       </c>
       <c r="B536">
@@ -12554,9 +12554,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" t="str">
-        <f>_xlfn.CONCAT(B537,C537)</f>
+        <f t="shared" si="8"/>
         <v>2022Q4</v>
       </c>
       <c r="B537">
@@ -12575,9 +12575,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538" t="str">
-        <f>_xlfn.CONCAT(B538,C538)</f>
+        <f t="shared" si="8"/>
         <v>2023Q1</v>
       </c>
       <c r="B538">
@@ -12596,9 +12596,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539" t="str">
-        <f>_xlfn.CONCAT(B539,C539)</f>
+        <f t="shared" si="8"/>
         <v>2023Q2</v>
       </c>
       <c r="B539">
@@ -12617,9 +12617,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540" t="str">
-        <f>_xlfn.CONCAT(B540,C540)</f>
+        <f t="shared" si="8"/>
         <v>2023Q3</v>
       </c>
       <c r="B540">
@@ -12638,9 +12638,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541" t="str">
-        <f>_xlfn.CONCAT(B541,C541)</f>
+        <f t="shared" si="8"/>
         <v>2023Q4</v>
       </c>
       <c r="B541">
@@ -12659,9 +12659,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542" t="str">
-        <f>_xlfn.CONCAT(B542,C542)</f>
+        <f t="shared" si="8"/>
         <v>2024Q2</v>
       </c>
       <c r="B542">
@@ -12680,9 +12680,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543" t="str">
-        <f>_xlfn.CONCAT(B543,C543)</f>
+        <f t="shared" si="8"/>
         <v>2024Q3</v>
       </c>
       <c r="B543">
@@ -12701,9 +12701,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" t="str">
-        <f>_xlfn.CONCAT(B544,C544)</f>
+        <f t="shared" si="8"/>
         <v>2024Q4</v>
       </c>
       <c r="B544">
@@ -12722,9 +12722,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545" t="str">
-        <f>_xlfn.CONCAT(B545,C545)</f>
+        <f t="shared" si="8"/>
         <v>2025Q1</v>
       </c>
       <c r="B545">
@@ -12743,9 +12743,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546" t="str">
-        <f>_xlfn.CONCAT(B546,C546)</f>
+        <f t="shared" si="8"/>
         <v>2023Q1</v>
       </c>
       <c r="B546">
@@ -12764,9 +12764,9 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547" t="str">
-        <f>_xlfn.CONCAT(B547,C547)</f>
+        <f t="shared" si="8"/>
         <v>2023Q3</v>
       </c>
       <c r="B547">
@@ -12785,9 +12785,9 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548" t="str">
-        <f>_xlfn.CONCAT(B548,C548)</f>
+        <f t="shared" si="8"/>
         <v>2023Q4</v>
       </c>
       <c r="B548">
@@ -12806,9 +12806,9 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549" t="str">
-        <f>_xlfn.CONCAT(B549,C549)</f>
+        <f t="shared" si="8"/>
         <v>2024Q1</v>
       </c>
       <c r="B549">
@@ -12827,9 +12827,9 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550" t="str">
-        <f>_xlfn.CONCAT(B550,C550)</f>
+        <f t="shared" si="8"/>
         <v>2024Q2</v>
       </c>
       <c r="B550">
@@ -12848,9 +12848,9 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551" t="str">
-        <f>_xlfn.CONCAT(B551,C551)</f>
+        <f t="shared" si="8"/>
         <v>2024Q3</v>
       </c>
       <c r="B551">
@@ -12869,9 +12869,9 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552" t="str">
-        <f>_xlfn.CONCAT(B552,C552)</f>
+        <f t="shared" si="8"/>
         <v>2024Q4</v>
       </c>
       <c r="B552">
@@ -12890,9 +12890,9 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553" t="str">
-        <f>_xlfn.CONCAT(B553,C553)</f>
+        <f t="shared" si="8"/>
         <v>2025Q1</v>
       </c>
       <c r="B553">
@@ -12911,9 +12911,9 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554" t="str">
-        <f>_xlfn.CONCAT(B554,C554)</f>
+        <f t="shared" si="8"/>
         <v>2022Q2</v>
       </c>
       <c r="B554">
@@ -12932,9 +12932,9 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555" t="str">
-        <f>_xlfn.CONCAT(B555,C555)</f>
+        <f t="shared" si="8"/>
         <v>2022Q4</v>
       </c>
       <c r="B555">
@@ -12953,9 +12953,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556" t="str">
-        <f>_xlfn.CONCAT(B556,C556)</f>
+        <f t="shared" si="8"/>
         <v>2023Q1</v>
       </c>
       <c r="B556">
@@ -12974,9 +12974,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557" t="str">
-        <f>_xlfn.CONCAT(B557,C557)</f>
+        <f t="shared" si="8"/>
         <v>2023Q2</v>
       </c>
       <c r="B557">
@@ -12995,9 +12995,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558" t="str">
-        <f>_xlfn.CONCAT(B558,C558)</f>
+        <f t="shared" si="8"/>
         <v>2023Q3</v>
       </c>
       <c r="B558">
@@ -13016,9 +13016,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559" t="str">
-        <f>_xlfn.CONCAT(B559,C559)</f>
+        <f t="shared" si="8"/>
         <v>2023Q4</v>
       </c>
       <c r="B559">
@@ -13037,9 +13037,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560" t="str">
-        <f>_xlfn.CONCAT(B560,C560)</f>
+        <f t="shared" si="8"/>
         <v>2024Q2</v>
       </c>
       <c r="B560">
@@ -13058,9 +13058,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561" t="str">
-        <f>_xlfn.CONCAT(B561,C561)</f>
+        <f t="shared" si="8"/>
         <v>2024Q3</v>
       </c>
       <c r="B561">
@@ -13079,9 +13079,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" t="str">
-        <f>_xlfn.CONCAT(B562,C562)</f>
+        <f t="shared" si="8"/>
         <v>2024Q4</v>
       </c>
       <c r="B562">
@@ -13100,9 +13100,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" t="str">
-        <f>_xlfn.CONCAT(B563,C563)</f>
+        <f t="shared" si="8"/>
         <v>2021Q1</v>
       </c>
       <c r="B563" s="2">
@@ -13121,9 +13121,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" t="str">
-        <f>_xlfn.CONCAT(B564,C564)</f>
+        <f t="shared" si="8"/>
         <v>2021Q2</v>
       </c>
       <c r="B564">
@@ -13142,9 +13142,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" t="str">
-        <f>_xlfn.CONCAT(B565,C565)</f>
+        <f t="shared" si="8"/>
         <v>2021Q4</v>
       </c>
       <c r="B565">
@@ -13163,9 +13163,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" t="str">
-        <f>_xlfn.CONCAT(B566,C566)</f>
+        <f t="shared" si="8"/>
         <v>2022Q1</v>
       </c>
       <c r="B566">
@@ -13184,9 +13184,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" t="str">
-        <f>_xlfn.CONCAT(B567,C567)</f>
+        <f t="shared" si="8"/>
         <v>2022Q2</v>
       </c>
       <c r="B567">
@@ -13205,9 +13205,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" t="str">
-        <f>_xlfn.CONCAT(B568,C568)</f>
+        <f t="shared" si="8"/>
         <v>2022Q3</v>
       </c>
       <c r="B568">
@@ -13226,9 +13226,9 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" t="str">
-        <f>_xlfn.CONCAT(B569,C569)</f>
+        <f t="shared" si="8"/>
         <v>2022Q4</v>
       </c>
       <c r="B569">
@@ -13247,9 +13247,9 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" t="str">
-        <f>_xlfn.CONCAT(B570,C570)</f>
+        <f t="shared" si="8"/>
         <v>2023Q1</v>
       </c>
       <c r="B570">
@@ -13268,9 +13268,9 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" t="str">
-        <f>_xlfn.CONCAT(B571,C571)</f>
+        <f t="shared" si="8"/>
         <v>2023Q2</v>
       </c>
       <c r="B571">
@@ -13289,9 +13289,9 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572" t="str">
-        <f>_xlfn.CONCAT(B572,C572)</f>
+        <f t="shared" si="8"/>
         <v>2023Q3</v>
       </c>
       <c r="B572">
@@ -13310,9 +13310,9 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" t="str">
-        <f>_xlfn.CONCAT(B573,C573)</f>
+        <f t="shared" si="8"/>
         <v>2023Q4</v>
       </c>
       <c r="B573">
@@ -13331,9 +13331,9 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" t="str">
-        <f>_xlfn.CONCAT(B574,C574)</f>
+        <f t="shared" si="8"/>
         <v>2024Q2</v>
       </c>
       <c r="B574">
@@ -13353,9 +13353,9 @@
       </c>
       <c r="H574" s="1"/>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" t="str">
-        <f>_xlfn.CONCAT(B575,C575)</f>
+        <f t="shared" si="8"/>
         <v>2024Q4</v>
       </c>
       <c r="B575">
@@ -13374,9 +13374,9 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" t="str">
-        <f>_xlfn.CONCAT(B576,C576)</f>
+        <f t="shared" si="8"/>
         <v>2025Q1</v>
       </c>
       <c r="B576">
@@ -13395,9 +13395,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577" t="str">
-        <f>_xlfn.CONCAT(B577,C577)</f>
+        <f t="shared" si="8"/>
         <v>2021Q1</v>
       </c>
       <c r="B577" s="2">
@@ -13416,9 +13416,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578" t="str">
-        <f>_xlfn.CONCAT(B578,C578)</f>
+        <f t="shared" ref="A578:A641" si="9">_xlfn.CONCAT(B578,C578)</f>
         <v>2021Q3</v>
       </c>
       <c r="B578">
@@ -13437,9 +13437,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579" t="str">
-        <f>_xlfn.CONCAT(B579,C579)</f>
+        <f t="shared" si="9"/>
         <v>2021Q4</v>
       </c>
       <c r="B579">
@@ -13458,9 +13458,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580" t="str">
-        <f>_xlfn.CONCAT(B580,C580)</f>
+        <f t="shared" si="9"/>
         <v>2021Q2</v>
       </c>
       <c r="B580">
@@ -13479,9 +13479,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581" t="str">
-        <f>_xlfn.CONCAT(B581,C581)</f>
+        <f t="shared" si="9"/>
         <v>2021Q3</v>
       </c>
       <c r="B581">
@@ -13500,9 +13500,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582" t="str">
-        <f>_xlfn.CONCAT(B582,C582)</f>
+        <f t="shared" si="9"/>
         <v>2021Q4</v>
       </c>
       <c r="B582">
@@ -13521,9 +13521,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583" t="str">
-        <f>_xlfn.CONCAT(B583,C583)</f>
+        <f t="shared" si="9"/>
         <v>2022Q1</v>
       </c>
       <c r="B583">
@@ -13542,9 +13542,9 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584" t="str">
-        <f>_xlfn.CONCAT(B584,C584)</f>
+        <f t="shared" si="9"/>
         <v>2022Q2</v>
       </c>
       <c r="B584">
@@ -13563,9 +13563,9 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585" t="str">
-        <f>_xlfn.CONCAT(B585,C585)</f>
+        <f t="shared" si="9"/>
         <v>2025Q1</v>
       </c>
       <c r="B585">
@@ -13584,9 +13584,9 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586" t="str">
-        <f>_xlfn.CONCAT(B586,C586)</f>
+        <f t="shared" si="9"/>
         <v>2024Q2</v>
       </c>
       <c r="B586">
@@ -13605,9 +13605,9 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587" t="str">
-        <f>_xlfn.CONCAT(B587,C587)</f>
+        <f t="shared" si="9"/>
         <v>2024Q3</v>
       </c>
       <c r="B587">
@@ -13626,9 +13626,9 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A588" t="str">
-        <f>_xlfn.CONCAT(B588,C588)</f>
+        <f t="shared" si="9"/>
         <v>2022Q4</v>
       </c>
       <c r="B588">
@@ -13647,9 +13647,9 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589" t="str">
-        <f>_xlfn.CONCAT(B589,C589)</f>
+        <f t="shared" si="9"/>
         <v>2023Q1</v>
       </c>
       <c r="B589">
@@ -13668,9 +13668,9 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590" t="str">
-        <f>_xlfn.CONCAT(B590,C590)</f>
+        <f t="shared" si="9"/>
         <v>2023Q2</v>
       </c>
       <c r="B590">
@@ -13689,9 +13689,9 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591" t="str">
-        <f>_xlfn.CONCAT(B591,C591)</f>
+        <f t="shared" si="9"/>
         <v>2023Q3</v>
       </c>
       <c r="B591">
@@ -13710,9 +13710,9 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592" t="str">
-        <f>_xlfn.CONCAT(B592,C592)</f>
+        <f t="shared" si="9"/>
         <v>2023Q4</v>
       </c>
       <c r="B592">
@@ -13731,9 +13731,9 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593" t="str">
-        <f>_xlfn.CONCAT(B593,C593)</f>
+        <f t="shared" si="9"/>
         <v>2024Q1</v>
       </c>
       <c r="B593">
@@ -13752,9 +13752,9 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" t="str">
-        <f>_xlfn.CONCAT(B594,C594)</f>
+        <f t="shared" si="9"/>
         <v>2024Q2</v>
       </c>
       <c r="B594">
@@ -13773,9 +13773,9 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" t="str">
-        <f>_xlfn.CONCAT(B595,C595)</f>
+        <f t="shared" si="9"/>
         <v>2024Q3</v>
       </c>
       <c r="B595">
@@ -13794,9 +13794,9 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596" t="str">
-        <f>_xlfn.CONCAT(B596,C596)</f>
+        <f t="shared" si="9"/>
         <v>2024Q4</v>
       </c>
       <c r="B596">
@@ -13815,9 +13815,9 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597" t="str">
-        <f>_xlfn.CONCAT(B597,C597)</f>
+        <f t="shared" si="9"/>
         <v>2025Q1</v>
       </c>
       <c r="B597">
@@ -13836,9 +13836,9 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" t="str">
-        <f>_xlfn.CONCAT(B598,C598)</f>
+        <f t="shared" si="9"/>
         <v>2021Q1</v>
       </c>
       <c r="B598" s="2">
@@ -13857,9 +13857,9 @@
         <v>21500</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599" t="str">
-        <f>_xlfn.CONCAT(B599,C599)</f>
+        <f t="shared" si="9"/>
         <v>2021Q2</v>
       </c>
       <c r="B599">
@@ -13878,9 +13878,9 @@
         <v>33600</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600" t="str">
-        <f>_xlfn.CONCAT(B600,C600)</f>
+        <f t="shared" si="9"/>
         <v>2021Q3</v>
       </c>
       <c r="B600">
@@ -13899,9 +13899,9 @@
         <v>33600</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601" t="str">
-        <f>_xlfn.CONCAT(B601,C601)</f>
+        <f t="shared" si="9"/>
         <v>2021Q4</v>
       </c>
       <c r="B601">
@@ -13920,9 +13920,9 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602" t="str">
-        <f>_xlfn.CONCAT(B602,C602)</f>
+        <f t="shared" si="9"/>
         <v>2022Q1</v>
       </c>
       <c r="B602">
@@ -13941,9 +13941,9 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" t="str">
-        <f>_xlfn.CONCAT(B603,C603)</f>
+        <f t="shared" si="9"/>
         <v>2022Q2</v>
       </c>
       <c r="B603">
@@ -13962,9 +13962,9 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604" t="str">
-        <f>_xlfn.CONCAT(B604,C604)</f>
+        <f t="shared" si="9"/>
         <v>2022Q4</v>
       </c>
       <c r="B604">
@@ -13983,9 +13983,9 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A605" t="str">
-        <f>_xlfn.CONCAT(B605,C605)</f>
+        <f t="shared" si="9"/>
         <v>2023Q1</v>
       </c>
       <c r="B605">
@@ -14004,9 +14004,9 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606" t="str">
-        <f>_xlfn.CONCAT(B606,C606)</f>
+        <f t="shared" si="9"/>
         <v>2023Q2</v>
       </c>
       <c r="B606">
@@ -14025,9 +14025,9 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607" t="str">
-        <f>_xlfn.CONCAT(B607,C607)</f>
+        <f t="shared" si="9"/>
         <v>2023Q3</v>
       </c>
       <c r="B607">
@@ -14046,9 +14046,9 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608" t="str">
-        <f>_xlfn.CONCAT(B608,C608)</f>
+        <f t="shared" si="9"/>
         <v>2023Q4</v>
       </c>
       <c r="B608">
@@ -14067,9 +14067,9 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609" t="str">
-        <f>_xlfn.CONCAT(B609,C609)</f>
+        <f t="shared" si="9"/>
         <v>2024Q1</v>
       </c>
       <c r="B609">
@@ -14088,9 +14088,9 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610" t="str">
-        <f>_xlfn.CONCAT(B610,C610)</f>
+        <f t="shared" si="9"/>
         <v>2024Q2</v>
       </c>
       <c r="B610">
@@ -14109,9 +14109,9 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A611" t="str">
-        <f>_xlfn.CONCAT(B611,C611)</f>
+        <f t="shared" si="9"/>
         <v>2024Q3</v>
       </c>
       <c r="B611">
@@ -14130,9 +14130,9 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A612" t="str">
-        <f>_xlfn.CONCAT(B612,C612)</f>
+        <f t="shared" si="9"/>
         <v>2024Q4</v>
       </c>
       <c r="B612">
@@ -14151,9 +14151,9 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A613" t="str">
-        <f>_xlfn.CONCAT(B613,C613)</f>
+        <f t="shared" si="9"/>
         <v>2025Q1</v>
       </c>
       <c r="B613">
@@ -14172,9 +14172,9 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A614" t="str">
-        <f>_xlfn.CONCAT(B614,C614)</f>
+        <f t="shared" si="9"/>
         <v>2021Q1</v>
       </c>
       <c r="B614" s="2">
@@ -14193,9 +14193,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A615" t="str">
-        <f>_xlfn.CONCAT(B615,C615)</f>
+        <f t="shared" si="9"/>
         <v>2021Q2</v>
       </c>
       <c r="B615">
@@ -14214,9 +14214,9 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A616" t="str">
-        <f>_xlfn.CONCAT(B616,C616)</f>
+        <f t="shared" si="9"/>
         <v>2021Q3</v>
       </c>
       <c r="B616">
@@ -14235,9 +14235,9 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A617" t="str">
-        <f>_xlfn.CONCAT(B617,C617)</f>
+        <f t="shared" si="9"/>
         <v>2021Q4</v>
       </c>
       <c r="B617">
@@ -14256,9 +14256,9 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A618" t="str">
-        <f>_xlfn.CONCAT(B618,C618)</f>
+        <f t="shared" si="9"/>
         <v>2022Q1</v>
       </c>
       <c r="B618">
@@ -14277,9 +14277,9 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A619" t="str">
-        <f>_xlfn.CONCAT(B619,C619)</f>
+        <f t="shared" si="9"/>
         <v>2022Q2</v>
       </c>
       <c r="B619">
@@ -14298,9 +14298,9 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A620" t="str">
-        <f>_xlfn.CONCAT(B620,C620)</f>
+        <f t="shared" si="9"/>
         <v>2022Q3</v>
       </c>
       <c r="B620">
@@ -14319,9 +14319,9 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A621" t="str">
-        <f>_xlfn.CONCAT(B621,C621)</f>
+        <f t="shared" si="9"/>
         <v>2022Q4</v>
       </c>
       <c r="B621">
@@ -14340,9 +14340,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A622" t="str">
-        <f>_xlfn.CONCAT(B622,C622)</f>
+        <f t="shared" si="9"/>
         <v>2023Q1</v>
       </c>
       <c r="B622">
@@ -14361,9 +14361,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A623" t="str">
-        <f>_xlfn.CONCAT(B623,C623)</f>
+        <f t="shared" si="9"/>
         <v>2023Q2</v>
       </c>
       <c r="B623">
@@ -14382,9 +14382,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A624" t="str">
-        <f>_xlfn.CONCAT(B624,C624)</f>
+        <f t="shared" si="9"/>
         <v>2023Q3</v>
       </c>
       <c r="B624">
@@ -14403,9 +14403,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A625" t="str">
-        <f>_xlfn.CONCAT(B625,C625)</f>
+        <f t="shared" si="9"/>
         <v>2023Q4</v>
       </c>
       <c r="B625">
@@ -14424,9 +14424,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A626" t="str">
-        <f>_xlfn.CONCAT(B626,C626)</f>
+        <f t="shared" si="9"/>
         <v>2025Q1</v>
       </c>
       <c r="B626">
@@ -14445,9 +14445,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A627" t="str">
-        <f>_xlfn.CONCAT(B627,C627)</f>
+        <f t="shared" si="9"/>
         <v>2021Q1</v>
       </c>
       <c r="B627" s="2">
@@ -14466,9 +14466,9 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A628" t="str">
-        <f>_xlfn.CONCAT(B628,C628)</f>
+        <f t="shared" si="9"/>
         <v>2021Q2</v>
       </c>
       <c r="B628">
@@ -14487,9 +14487,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A629" t="str">
-        <f>_xlfn.CONCAT(B629,C629)</f>
+        <f t="shared" si="9"/>
         <v>2021Q3</v>
       </c>
       <c r="B629">
@@ -14508,9 +14508,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A630" t="str">
-        <f>_xlfn.CONCAT(B630,C630)</f>
+        <f t="shared" si="9"/>
         <v>2024Q1</v>
       </c>
       <c r="B630">
@@ -14529,9 +14529,9 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A631" t="str">
-        <f>_xlfn.CONCAT(B631,C631)</f>
+        <f t="shared" si="9"/>
         <v>2024Q2</v>
       </c>
       <c r="B631">
@@ -14550,9 +14550,9 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A632" t="str">
-        <f>_xlfn.CONCAT(B632,C632)</f>
+        <f t="shared" si="9"/>
         <v>2024Q3</v>
       </c>
       <c r="B632">
@@ -14571,9 +14571,9 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A633" t="str">
-        <f>_xlfn.CONCAT(B633,C633)</f>
+        <f t="shared" si="9"/>
         <v>2024Q4</v>
       </c>
       <c r="B633">
@@ -14592,9 +14592,9 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A634" t="str">
-        <f>_xlfn.CONCAT(B634,C634)</f>
+        <f t="shared" si="9"/>
         <v>2025Q1</v>
       </c>
       <c r="B634">
@@ -14613,9 +14613,9 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A635" t="str">
-        <f>_xlfn.CONCAT(B635,C635)</f>
+        <f t="shared" si="9"/>
         <v>2021Q1</v>
       </c>
       <c r="B635" s="2">
@@ -14634,9 +14634,9 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A636" t="str">
-        <f>_xlfn.CONCAT(B636,C636)</f>
+        <f t="shared" si="9"/>
         <v>2021Q2</v>
       </c>
       <c r="B636">
@@ -14655,9 +14655,9 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A637" t="str">
-        <f>_xlfn.CONCAT(B637,C637)</f>
+        <f t="shared" si="9"/>
         <v>2021Q3</v>
       </c>
       <c r="B637">
@@ -14676,9 +14676,9 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A638" t="str">
-        <f>_xlfn.CONCAT(B638,C638)</f>
+        <f t="shared" si="9"/>
         <v>2021Q4</v>
       </c>
       <c r="B638">
@@ -14697,9 +14697,9 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A639" t="str">
-        <f>_xlfn.CONCAT(B639,C639)</f>
+        <f t="shared" si="9"/>
         <v>2022Q1</v>
       </c>
       <c r="B639">
@@ -14718,9 +14718,9 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A640" t="str">
-        <f>_xlfn.CONCAT(B640,C640)</f>
+        <f t="shared" si="9"/>
         <v>2022Q2</v>
       </c>
       <c r="B640">
@@ -14739,9 +14739,9 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A641" t="str">
-        <f>_xlfn.CONCAT(B641,C641)</f>
+        <f t="shared" si="9"/>
         <v>2022Q3</v>
       </c>
       <c r="B641">
@@ -14760,9 +14760,9 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A642" t="str">
-        <f>_xlfn.CONCAT(B642,C642)</f>
+        <f t="shared" ref="A642:A705" si="10">_xlfn.CONCAT(B642,C642)</f>
         <v>2022Q4</v>
       </c>
       <c r="B642">
@@ -14781,9 +14781,9 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A643" t="str">
-        <f>_xlfn.CONCAT(B643,C643)</f>
+        <f t="shared" si="10"/>
         <v>2023Q2</v>
       </c>
       <c r="B643">
@@ -14802,9 +14802,9 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A644" t="str">
-        <f>_xlfn.CONCAT(B644,C644)</f>
+        <f t="shared" si="10"/>
         <v>2023Q3</v>
       </c>
       <c r="B644">
@@ -14823,9 +14823,9 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A645" t="str">
-        <f>_xlfn.CONCAT(B645,C645)</f>
+        <f t="shared" si="10"/>
         <v>2024Q2</v>
       </c>
       <c r="B645">
@@ -14844,9 +14844,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A646" t="str">
-        <f>_xlfn.CONCAT(B646,C646)</f>
+        <f t="shared" si="10"/>
         <v>2024Q3</v>
       </c>
       <c r="B646">
@@ -14865,9 +14865,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A647" t="str">
-        <f>_xlfn.CONCAT(B647,C647)</f>
+        <f t="shared" si="10"/>
         <v>2024Q4</v>
       </c>
       <c r="B647">
@@ -14886,9 +14886,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A648" t="str">
-        <f>_xlfn.CONCAT(B648,C648)</f>
+        <f t="shared" si="10"/>
         <v>2025Q1</v>
       </c>
       <c r="B648">
@@ -14907,9 +14907,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A649" t="str">
-        <f>_xlfn.CONCAT(B649,C649)</f>
+        <f t="shared" si="10"/>
         <v>2021Q1</v>
       </c>
       <c r="B649" s="2">
@@ -14928,9 +14928,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A650" t="str">
-        <f>_xlfn.CONCAT(B650,C650)</f>
+        <f t="shared" si="10"/>
         <v>2021Q2</v>
       </c>
       <c r="B650">
@@ -14949,9 +14949,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A651" t="str">
-        <f>_xlfn.CONCAT(B651,C651)</f>
+        <f t="shared" si="10"/>
         <v>2021Q3</v>
       </c>
       <c r="B651">
@@ -14970,9 +14970,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A652" t="str">
-        <f>_xlfn.CONCAT(B652,C652)</f>
+        <f t="shared" si="10"/>
         <v>2021Q4</v>
       </c>
       <c r="B652">
@@ -14991,9 +14991,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A653" t="str">
-        <f>_xlfn.CONCAT(B653,C653)</f>
+        <f t="shared" si="10"/>
         <v>2022Q1</v>
       </c>
       <c r="B653">
@@ -15012,9 +15012,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A654" t="str">
-        <f>_xlfn.CONCAT(B654,C654)</f>
+        <f t="shared" si="10"/>
         <v>2022Q2</v>
       </c>
       <c r="B654">
@@ -15033,9 +15033,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A655" t="str">
-        <f>_xlfn.CONCAT(B655,C655)</f>
+        <f t="shared" si="10"/>
         <v>2022Q3</v>
       </c>
       <c r="B655">
@@ -15054,9 +15054,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A656" t="str">
-        <f>_xlfn.CONCAT(B656,C656)</f>
+        <f t="shared" si="10"/>
         <v>2022Q4</v>
       </c>
       <c r="B656">
@@ -15075,9 +15075,9 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A657" t="str">
-        <f>_xlfn.CONCAT(B657,C657)</f>
+        <f t="shared" si="10"/>
         <v>2023Q1</v>
       </c>
       <c r="B657">
@@ -15096,9 +15096,9 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A658" t="str">
-        <f>_xlfn.CONCAT(B658,C658)</f>
+        <f t="shared" si="10"/>
         <v>2023Q2</v>
       </c>
       <c r="B658">
@@ -15117,9 +15117,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A659" t="str">
-        <f>_xlfn.CONCAT(B659,C659)</f>
+        <f t="shared" si="10"/>
         <v>2023Q3</v>
       </c>
       <c r="B659">
@@ -15138,9 +15138,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A660" t="str">
-        <f>_xlfn.CONCAT(B660,C660)</f>
+        <f t="shared" si="10"/>
         <v>2024Q2</v>
       </c>
       <c r="B660">
@@ -15159,9 +15159,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A661" t="str">
-        <f>_xlfn.CONCAT(B661,C661)</f>
+        <f t="shared" si="10"/>
         <v>2024Q3</v>
       </c>
       <c r="B661">
@@ -15180,9 +15180,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A662" t="str">
-        <f>_xlfn.CONCAT(B662,C662)</f>
+        <f t="shared" si="10"/>
         <v>2024Q4</v>
       </c>
       <c r="B662">
@@ -15201,9 +15201,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A663" t="str">
-        <f>_xlfn.CONCAT(B663,C663)</f>
+        <f t="shared" si="10"/>
         <v>2025Q1</v>
       </c>
       <c r="B663">
@@ -15222,9 +15222,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A664" t="str">
-        <f>_xlfn.CONCAT(B664,C664)</f>
+        <f t="shared" si="10"/>
         <v>2025Q1</v>
       </c>
       <c r="B664">
@@ -15243,9 +15243,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A665" t="str">
-        <f>_xlfn.CONCAT(B665,C665)</f>
+        <f t="shared" si="10"/>
         <v>2022Q2</v>
       </c>
       <c r="B665">
@@ -15264,9 +15264,9 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A666" t="str">
-        <f>_xlfn.CONCAT(B666,C666)</f>
+        <f t="shared" si="10"/>
         <v>2022Q3</v>
       </c>
       <c r="B666">
@@ -15286,9 +15286,9 @@
       </c>
       <c r="H666" s="1"/>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A667" t="str">
-        <f>_xlfn.CONCAT(B667,C667)</f>
+        <f t="shared" si="10"/>
         <v>2022Q4</v>
       </c>
       <c r="B667">
@@ -15307,9 +15307,9 @@
         <v>11650</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A668" t="str">
-        <f>_xlfn.CONCAT(B668,C668)</f>
+        <f t="shared" si="10"/>
         <v>2023Q1</v>
       </c>
       <c r="B668">
@@ -15328,9 +15328,9 @@
         <v>11650</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A669" t="str">
-        <f>_xlfn.CONCAT(B669,C669)</f>
+        <f t="shared" si="10"/>
         <v>2023Q2</v>
       </c>
       <c r="B669">
@@ -15349,9 +15349,9 @@
         <v>11650</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A670" t="str">
-        <f>_xlfn.CONCAT(B670,C670)</f>
+        <f t="shared" si="10"/>
         <v>2023Q3</v>
       </c>
       <c r="B670">
@@ -15370,9 +15370,9 @@
         <v>11650</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A671" t="str">
-        <f>_xlfn.CONCAT(B671,C671)</f>
+        <f t="shared" si="10"/>
         <v>2023Q4</v>
       </c>
       <c r="B671">
@@ -15391,9 +15391,9 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A672" t="str">
-        <f>_xlfn.CONCAT(B672,C672)</f>
+        <f t="shared" si="10"/>
         <v>2024Q2</v>
       </c>
       <c r="B672">
@@ -15412,9 +15412,9 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A673" t="str">
-        <f>_xlfn.CONCAT(B673,C673)</f>
+        <f t="shared" si="10"/>
         <v>2024Q3</v>
       </c>
       <c r="B673">
@@ -15433,9 +15433,9 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A674" t="str">
-        <f>_xlfn.CONCAT(B674,C674)</f>
+        <f t="shared" si="10"/>
         <v>2024Q4</v>
       </c>
       <c r="B674">
@@ -15454,9 +15454,9 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A675" t="str">
-        <f>_xlfn.CONCAT(B675,C675)</f>
+        <f t="shared" si="10"/>
         <v>2025Q1</v>
       </c>
       <c r="B675">
@@ -15475,9 +15475,9 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A676" t="str">
-        <f>_xlfn.CONCAT(B676,C676)</f>
+        <f t="shared" si="10"/>
         <v>2021Q1</v>
       </c>
       <c r="B676" s="2">
@@ -15496,9 +15496,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A677" t="str">
-        <f>_xlfn.CONCAT(B677,C677)</f>
+        <f t="shared" si="10"/>
         <v>2021Q2</v>
       </c>
       <c r="B677">
@@ -15517,9 +15517,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A678" t="str">
-        <f>_xlfn.CONCAT(B678,C678)</f>
+        <f t="shared" si="10"/>
         <v>2021Q3</v>
       </c>
       <c r="B678">
@@ -15538,9 +15538,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A679" t="str">
-        <f>_xlfn.CONCAT(B679,C679)</f>
+        <f t="shared" si="10"/>
         <v>2021Q4</v>
       </c>
       <c r="B679">
@@ -15559,9 +15559,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A680" t="str">
-        <f>_xlfn.CONCAT(B680,C680)</f>
+        <f t="shared" si="10"/>
         <v>2022Q2</v>
       </c>
       <c r="B680">
@@ -15580,9 +15580,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A681" t="str">
-        <f>_xlfn.CONCAT(B681,C681)</f>
+        <f t="shared" si="10"/>
         <v>2022Q3</v>
       </c>
       <c r="B681">
@@ -15601,9 +15601,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A682" t="str">
-        <f>_xlfn.CONCAT(B682,C682)</f>
+        <f t="shared" si="10"/>
         <v>2022Q4</v>
       </c>
       <c r="B682">
@@ -15622,9 +15622,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A683" t="str">
-        <f>_xlfn.CONCAT(B683,C683)</f>
+        <f t="shared" si="10"/>
         <v>2023Q1</v>
       </c>
       <c r="B683">
@@ -15643,9 +15643,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A684" t="str">
-        <f>_xlfn.CONCAT(B684,C684)</f>
+        <f t="shared" si="10"/>
         <v>2023Q2</v>
       </c>
       <c r="B684">
@@ -15664,9 +15664,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A685" t="str">
-        <f>_xlfn.CONCAT(B685,C685)</f>
+        <f t="shared" si="10"/>
         <v>2023Q3</v>
       </c>
       <c r="B685">
@@ -15685,9 +15685,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A686" t="str">
-        <f>_xlfn.CONCAT(B686,C686)</f>
+        <f t="shared" si="10"/>
         <v>2023Q4</v>
       </c>
       <c r="B686">
@@ -15706,9 +15706,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A687" t="str">
-        <f>_xlfn.CONCAT(B687,C687)</f>
+        <f t="shared" si="10"/>
         <v>2024Q1</v>
       </c>
       <c r="B687">
@@ -15727,9 +15727,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A688" t="str">
-        <f>_xlfn.CONCAT(B688,C688)</f>
+        <f t="shared" si="10"/>
         <v>2024Q2</v>
       </c>
       <c r="B688">
@@ -15748,9 +15748,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A689" t="str">
-        <f>_xlfn.CONCAT(B689,C689)</f>
+        <f t="shared" si="10"/>
         <v>2024Q3</v>
       </c>
       <c r="B689">
@@ -15769,9 +15769,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A690" t="str">
-        <f>_xlfn.CONCAT(B690,C690)</f>
+        <f t="shared" si="10"/>
         <v>2024Q4</v>
       </c>
       <c r="B690">
@@ -15790,9 +15790,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A691" t="str">
-        <f>_xlfn.CONCAT(B691,C691)</f>
+        <f t="shared" si="10"/>
         <v>2025Q1</v>
       </c>
       <c r="B691">
@@ -15983,20 +15983,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8b687d34-7428-4f78-9e27-4f6e714a13d9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8b687d34-7428-4f78-9e27-4f6e714a13d9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16018,14 +16018,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CA66982-A85B-4FAC-8F03-EF5FD736B05C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F0D312F-BE63-49F0-B275-23F16C6E3E84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -16039,4 +16031,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CA66982-A85B-4FAC-8F03-EF5FD736B05C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>